--- a/Projects/BATRU/Data/P3_template.xlsx
+++ b/Projects/BATRU/Data/P3_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,16 +18,16 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
@@ -37,6 +37,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
@@ -51,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
@@ -65,11 +67,12 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
@@ -79,6 +82,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
@@ -93,6 +97,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
@@ -107,6 +112,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -118,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="364">
   <si>
     <t>State</t>
   </si>
@@ -1152,64 +1158,64 @@
     <t>ALL</t>
   </si>
   <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Kent_DL3</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Kent_DL3 (1), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (10), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (11), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (12), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (13), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (14), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (15), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (16), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (17), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (18), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (19), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (2), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (20), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (21), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (22), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (23), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (24), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (25), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (26), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (3), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (4), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (5), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (6), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (7), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (8), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (9)</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - Kent_DL_new</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - Kent_DL_new (1)</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Kent_DL_new</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Kent_DL_new (1), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (10), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (11), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (12), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (13), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (14), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (15), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (16), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (17), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (18), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (19), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (2), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (20), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (21), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (22), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (23), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (24), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (25), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (26), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (3), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (4), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (5), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (6), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (7), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (8), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (9)</t>
-  </si>
-  <si>
-    <t>GC_A_TN_BackGround_for_BWD - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t>B_RTH_Stickers_BWD_Asymmetric_305x155, B_RTH_Stickers_BWD_Asymmetric_356x155, B_RTH_Stickers_BWD_Asymmetric_485x155, B_RTH_Stickers_BWD_Asymmetric_500x155, B_RTH_Stickers_BWD_Asymmetric_680x155, B_RTH_Stickers_BWD_Symmetric_238x155-03, B_RTH_Stickers_BWD_Symmetric_238x155-04, B_RTH_Stickers_BWD_Symmetric_268x100-05, B_RTH_Stickers_BWD_Symmetric_268x100-06, B_RTH_Stickers_BWD_Symmetric_321x155-01, B_RTH_Stickers_BWD_Symmetric_321x155-02</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t>BAT_RTH_SAS_Vert_306x274-2, BAT_RTH_SAS_Vert_306x274</t>
-  </si>
-  <si>
-    <t>GC_A_TN_PHL - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t>B_RTH_Moсkup_152x160-1, B_RTH_Moсkup_152x160-2, B_RTH_Moсkup_3008_152x160-1, B_RTH_Moсkup_3008_152x160-2</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t>B_RTH_Stripe_Cupsule_3008_178x48, B_RTH_Stripe_Cupsule_3008_238x48, B_RTH_Stripe_Cupsule_3008_268x48, B_RTH_Stripe_Cupsule_3008_305x48, B_RTH_Stripe_Cupsule_3008_321x48, B_RTH_Stripe_Cupsule_3008_365x48, B_RTH_Stripe_Cupsule_3008_485x48, B_RTH_Stripe_Cupsule_3008_500x48, B_RTH_Stripe_Cupsule_3008_680x48, B_RTH_Stripe_Letters_178x25, B_RTH_Stripe_Letters_238x25, B_RTH_Stripe_Letters_268x25, B_RTH_Stripe_Letters_305x25, B_RTH_Stripe_Letters_321x25, B_RTH_Stripe_Letters_365x25, B_RTH_Stripe_Letters_485x25, B_RTH_Stripe_Letters_500x25, B_RTH_Stripe_Letters_680x25</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_DL3</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor - Kent_DL3</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_DL_new</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor - Kent_DL_new (1)</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t>BAT_RTH_SAS_Hor_278x190-2, BAT_RTH_SAS_Hor_278x190</t>
+    <t>GC_A_TN_SAS Frame - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - Kent_Amber (1).jpg, GC_A_TN_SAS Frame - Kent_Amber (10).jpg, GC_A_TN_SAS Frame - Kent_Amber (2).jpg, GC_A_TN_SAS Frame - Kent_Amber (3).jpg, GC_A_TN_SAS Frame - Kent_Amber (4).jpg, GC_A_TN_SAS Frame - Kent_Amber (5).jpg, GC_A_TN_SAS Frame - Kent_Amber (6).jpg, GC_A_TN_SAS Frame - Kent_Amber (7).jpg, GC_A_TN_SAS Frame - Kent_Amber (8).jpg, GC_A_TN_SAS Frame - Kent_Amber (9).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber.jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - RTM_International (1).jpg, GC_A_TN_SAS Frame - RTM_International (2).jpg, GC_A_TN_SAS Frame - RTM_International (3).jpg, GC_A_TN_SAS Frame - RTM_International (4).jpg, GC_A_TN_SAS Frame - RTM_International (5).jpg, GC_A_TN_SAS Frame - RTM_International (6).jpg, GC_A_TN_SAS Frame - RTM_International (7).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - Kent_Amber (1).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (2).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (3).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (4).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (5).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - Kent_Amber (1).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - RTM_International (1).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (2).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (3).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (4).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (5).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - RTM_International (1).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (2).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (3).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (4).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - RTM_International (1).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (2).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (3).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (4).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (5).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (6).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (7).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (8).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (1).jpg, GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (2).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - RTM_International.jpg</t>
   </si>
 </sst>
 </file>
@@ -1695,15 +1701,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>735120</xdr:colOff>
+      <xdr:colOff>761760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1716,8 +1722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30029400" y="1440"/>
-          <a:ext cx="2547720" cy="172080"/>
+          <a:off x="30208680" y="1440"/>
+          <a:ext cx="2547360" cy="171720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1732,15 +1738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>749520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>724680</xdr:colOff>
+      <xdr:colOff>751320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1753,8 +1759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29516400" y="36000"/>
-          <a:ext cx="4574160" cy="101520"/>
+          <a:off x="29695680" y="27000"/>
+          <a:ext cx="4573800" cy="101160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,15 +1775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>492480</xdr:colOff>
+      <xdr:colOff>519480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>677880</xdr:colOff>
+      <xdr:colOff>704520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1790,8 +1796,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32334480" y="3240"/>
-          <a:ext cx="2471400" cy="170280"/>
+          <a:off x="32513760" y="3240"/>
+          <a:ext cx="2471040" cy="169920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1839,19 +1845,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
@@ -24783,7 +24789,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N521"/>
+  <autoFilter ref="A1:N511"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -24808,10 +24814,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.69635627530364"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8987854251012"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27355,10 +27361,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
@@ -28244,10 +28250,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
@@ -29622,7 +29628,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D43"/>
+  <autoFilter ref="A1:D41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -29647,8 +29653,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
@@ -30364,9 +30370,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -31003,19 +31009,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.1578947368421"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -31038,13 +31044,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>344</v>
@@ -31055,7 +31061,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>69</v>
@@ -31072,13 +31078,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>348</v>
@@ -31089,13 +31095,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>350</v>
@@ -31106,13 +31112,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>352</v>
@@ -31123,10 +31129,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>46</v>
@@ -31140,10 +31146,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>46</v>
@@ -31157,302 +31163,302 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>350</v>
@@ -31463,27 +31469,27 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>46</v>
@@ -31497,903 +31503,308 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="E66" s="0" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATRU/Data/P3_template.xlsx
+++ b/Projects/BATRU/Data/P3_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$521</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
@@ -53,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
@@ -68,12 +70,13 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
@@ -83,6 +86,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
@@ -98,6 +102,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
@@ -113,6 +118,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -124,1185 +130,1185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4844" uniqueCount="393">
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># of shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_attribute_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">section_limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Above SAS zone?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_shelf_from_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_shelf_from_top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_shelf_from_bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_shelf_from_bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD Premium black 11x12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asp. Premium +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 - Rt Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C1:R9C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Kent Nano Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C6:R9C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Vogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C10:R9C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Rt Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C1:R8C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 - Kent Nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C6:R8C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C10:R8C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - Royals KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C1:R7C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Kent HD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C6:R7C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 - Yava Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C10:R7C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 - Royals demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C1:R6C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - Kent DL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C6:R6C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 - Yava Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C10:R6C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 - Rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C1:R5C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 - Yava Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C10:R5C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VFM -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C5:R9C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C1:R9C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C5:R8C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C1:R8C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C5:R7C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C1:R7C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C5:R6C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C1:R6C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD SS Door Slim 11*12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C1:R5C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C6:R5C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C1:R2C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C10:R2C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C5:R5C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C1:R5C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD A2 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 - Rt Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C5:R9C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C8:R9C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C5:R8C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C8:R8C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C5:R7C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C8:R7C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C5:R6C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C8:R6C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C1:R5C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C8:R5C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C4:R9C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C1:R9C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C4:R8C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C1:R8C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C4:R7C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C1:R7C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C4:R6C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C1:R6C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD A2 2011 non SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Rt Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 - Kent HD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C5:R5C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C1:R4C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C4:R5C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C1:R5C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD Premium black 11x15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - Rt Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C1:R9C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C8:R9C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C13:R9C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C1:R8C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C8:R8C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C13:R8C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C1:R7C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C8:R7C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C13:R7C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C1:R6C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C8:R6C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C13:R6C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C1:R5C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C13:R5C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9C6:R9C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8C6:R8C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7C6:R7C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6C6:R6C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD Premium 9 x 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C1:R4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C10:R4C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD Premium 9 x 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C8:R5C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C1:R4C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C13:R4C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C6:R5C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD SS Door Slim 11*15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C1:R2C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C13:R2C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD SS Door Oval 11*15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD SS Door Oval 11*12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD SS Flaps 11*15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1C1:R1C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1C13:R1C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_BWD SS Flaps 11*12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1C1:R1C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1C10:R1C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5C5:R5C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C1:R4C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C8:R4C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST_BWD SS 12*15 Local Elby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST_BWD SS 12*15 Local PVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3C6:R3C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Kent DL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3C1:R3C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3C13:R3C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C6:R4C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4C1:R4C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - Royals Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 - Royals KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - Kent Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_OHD Self-Service 3х20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 - Kent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3C1:R3C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - Rothmans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3C12:R3C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 - Yava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C1:R2C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - Rest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C9:R2C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 - Royals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C16:R2C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_OHD Self-Service 3х20 Flaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_P_OHD PackMan 3х20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2C19:R2C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST_OHD SS 3*20 Local Elby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index (Duplications priority)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans Demi Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1Z9QGHH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans Nanokings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1ZZTLXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans Demi Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-214F80L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans SS Click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1Y66O1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans International</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans International PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos-000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans SS Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1X7ZJW5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nano Mix Amber PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos-000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nano Mix Amber PHL - Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos-000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nano Mix Amber PHL - Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos-000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nano Mix Amber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-26BSJ6T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nano Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-244ZTNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Neostiks Bright Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-24YB1M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Neostiks Citric Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-24YB1MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Neostiks Fresh Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-24YB1ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogue Bleue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogue Lilas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogue Menthe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogue Arome Diner en Ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-44LWV7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans Demi Click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-223WA7H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-24U8991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans Demi Aero Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23RD3HA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nanotek 2.0 Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-EOGSAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nanotek 2.0 White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-EOGSB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent iSwitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1USSGBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Nanotek 2.0 Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Hdi Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-244ZTMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent HDs Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1X73453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogue Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-25TEECZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogue Unique PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pos-000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans KS Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1Y66O2P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans KS Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1Y66O2Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royals KS Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23J1KKF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royals KS Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-22ZS7MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent HD Futura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent HD Neo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent HD Infina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Turbo Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-244ZTLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1XA2D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Turbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava SC Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava SC Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Classic 25 Stx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23366VZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava HL Classic 25 sticks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23366WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royals Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-22ZMXKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royals Berry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-24U899V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royals Nanokings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-24AQHX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent D-Mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-244ZTLX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent D-Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent D-Mix Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-249YDT8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava White Gold Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-216K8LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Classic 100s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23J1KKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dallas Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dallas Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Fine Cut Blond Bland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-VVEYS8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Fine Cut Dark Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-K2JYMZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill FC Master Blend Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-K2JYMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill FC Swiss Blend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-K2JYMK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill KS MB Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill KS MB Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill KS MB Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-20JIR06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viceroy Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1D6LZW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viceroy Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1D6LZP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky Strike Premium Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1Z4HHNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky Strike Premium Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1Z4IKCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pall Mall KS Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-111PWZP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pall Mall KS Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-111PWZU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pall Mall Nanokings Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-152HINK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pall Mall SS Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pall Mall SS Menthol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1QSYU5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Demi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1ZXH2W6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Modern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Modern Slims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1X2NZWZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Original Compact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Original Slims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1X2NZWU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Classic 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-21VR1SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Original 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-21VR1S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priluki Osoblivi Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-20XVOZP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priluki Osoblivi Sophisticated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-20XVOZ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava White Gold Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-216K8MJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent D-mix plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Turbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill FC Blond Blend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill FC Master Blend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent D-mix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Fine Cut Swiss Bland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Fine Cut Sky Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Master Blend Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Master Blend Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunhill Master Blend Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start_shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_english_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent HDi Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1YT2JWW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-148QT8L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rothmans SS Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-23Q4OGL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Classic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1WXI3F6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Gold Ultra Turbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1X9GDMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT NEEDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yava Modern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-I3-260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1XAVBUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1ZBSHBB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Names of template in SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Kent_DL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Kent_DL3 (1), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (10), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (11), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (12), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (13), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (14), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (15), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (16), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (17), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (18), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (19), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (2), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (20), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (21), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (22), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (23), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (24), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (25), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (26), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (3), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (4), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (5), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (6), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (7), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (8), GC_A_TN_Shelf Strip for SAS - Kent_DL3 (9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - Kent_DL_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - Kent_DL_new (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Kent_DL_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Kent_DL_new (1), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (10), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (11), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (12), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (13), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (14), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (15), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (16), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (17), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (18), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (19), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (2), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (20), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (21), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (22), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (23), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (24), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (25), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (26), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (3), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (4), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (5), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (6), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (7), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (8), GC_A_TN_Shelf Strip for SAS - Kent_DL_new (9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_BackGround_for_BWD - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_RTH_Stickers_BWD_Asymmetric_305x155, B_RTH_Stickers_BWD_Asymmetric_356x155, B_RTH_Stickers_BWD_Asymmetric_485x155, B_RTH_Stickers_BWD_Asymmetric_500x155, B_RTH_Stickers_BWD_Asymmetric_680x155, B_RTH_Stickers_BWD_Symmetric_238x155-03, B_RTH_Stickers_BWD_Symmetric_238x155-04, B_RTH_Stickers_BWD_Symmetric_268x100-05, B_RTH_Stickers_BWD_Symmetric_268x100-06, B_RTH_Stickers_BWD_Symmetric_321x155-01, B_RTH_Stickers_BWD_Symmetric_321x155-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT_RTH_SAS_Vert_306x274-2, BAT_RTH_SAS_Vert_306x274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_PHL - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_RTH_Moсkup_152x160-1, B_RTH_Moсkup_152x160-2, B_RTH_Moсkup_3008_152x160-1, B_RTH_Moсkup_3008_152x160-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_RTH_Stripe_Cupsule_3008_178x48, B_RTH_Stripe_Cupsule_3008_238x48, B_RTH_Stripe_Cupsule_3008_268x48, B_RTH_Stripe_Cupsule_3008_305x48, B_RTH_Stripe_Cupsule_3008_321x48, B_RTH_Stripe_Cupsule_3008_365x48, B_RTH_Stripe_Cupsule_3008_485x48, B_RTH_Stripe_Cupsule_3008_500x48, B_RTH_Stripe_Cupsule_3008_680x48, B_RTH_Stripe_Letters_178x25, B_RTH_Stripe_Letters_238x25, B_RTH_Stripe_Letters_268x25, B_RTH_Stripe_Letters_305x25, B_RTH_Stripe_Letters_321x25, B_RTH_Stripe_Letters_365x25, B_RTH_Stripe_Letters_485x25, B_RTH_Stripe_Letters_500x25, B_RTH_Stripe_Letters_680x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - Kent_DL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor - Kent_DL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - Kent_DL_new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor - Kent_DL_new (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - Rtm_Mandarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT_RTH_SAS_Hor_278x190-2, BAT_RTH_SAS_Hor_278x190</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="393">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>fixture</t>
+  </si>
+  <si>
+    <t># of shelves</t>
+  </si>
+  <si>
+    <t>store_attribute_3</t>
+  </si>
+  <si>
+    <t>section_number</t>
+  </si>
+  <si>
+    <t>section_name</t>
+  </si>
+  <si>
+    <t>section_limits</t>
+  </si>
+  <si>
+    <t>Above SAS zone?</t>
+  </si>
+  <si>
+    <t>start_shelf_from_top</t>
+  </si>
+  <si>
+    <t>end_shelf_from_top</t>
+  </si>
+  <si>
+    <t>start_shelf_from_bottom</t>
+  </si>
+  <si>
+    <t>end_shelf_from_bottom</t>
+  </si>
+  <si>
+    <t>start_sequence</t>
+  </si>
+  <si>
+    <t>end_sequence</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>GC_P_BWD Premium black 11x12</t>
+  </si>
+  <si>
+    <t>Asp. Premium +</t>
+  </si>
+  <si>
+    <t>23 - Rt Demi</t>
+  </si>
+  <si>
+    <t>R9C1:R9C5</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2 - Kent Nano Mix</t>
+  </si>
+  <si>
+    <t>R9C6:R9C9</t>
+  </si>
+  <si>
+    <t>3 - Vogue</t>
+  </si>
+  <si>
+    <t>R9C10:R9C12</t>
+  </si>
+  <si>
+    <t>4 - Rt Capsule</t>
+  </si>
+  <si>
+    <t>R8C1:R8C5</t>
+  </si>
+  <si>
+    <t>5 - Kent Nano</t>
+  </si>
+  <si>
+    <t>R8C6:R8C9</t>
+  </si>
+  <si>
+    <t>6 - Unique</t>
+  </si>
+  <si>
+    <t>R8C10:R8C12</t>
+  </si>
+  <si>
+    <t>7 - Royals KS</t>
+  </si>
+  <si>
+    <t>R7C1:R7C5</t>
+  </si>
+  <si>
+    <t>8 - Kent HD</t>
+  </si>
+  <si>
+    <t>R7C6:R7C9</t>
+  </si>
+  <si>
+    <t>9 - Yava Gold</t>
+  </si>
+  <si>
+    <t>R7C10:R7C12</t>
+  </si>
+  <si>
+    <t>10 - Royals demi</t>
+  </si>
+  <si>
+    <t>R6C1:R6C5</t>
+  </si>
+  <si>
+    <t>11 - Kent DL</t>
+  </si>
+  <si>
+    <t>R6C6:R6C9</t>
+  </si>
+  <si>
+    <t>12 - Yava Classic</t>
+  </si>
+  <si>
+    <t>R6C10:R6C12</t>
+  </si>
+  <si>
+    <t>13 - Rest</t>
+  </si>
+  <si>
+    <t>R5C1:R5C9</t>
+  </si>
+  <si>
+    <t>14 - Yava Original</t>
+  </si>
+  <si>
+    <t>R5C10:R5C12</t>
+  </si>
+  <si>
+    <t>VFM -</t>
+  </si>
+  <si>
+    <t>R9C5:R9C9</t>
+  </si>
+  <si>
+    <t>R9C1:R9C4</t>
+  </si>
+  <si>
+    <t>R8C5:R8C9</t>
+  </si>
+  <si>
+    <t>R8C1:R8C4</t>
+  </si>
+  <si>
+    <t>R7C5:R7C9</t>
+  </si>
+  <si>
+    <t>R7C1:R7C4</t>
+  </si>
+  <si>
+    <t>R6C5:R6C9</t>
+  </si>
+  <si>
+    <t>R6C1:R6C4</t>
+  </si>
+  <si>
+    <t>GC_P_BWD SS Door Slim 11*12</t>
+  </si>
+  <si>
+    <t>R5C1:R5C5</t>
+  </si>
+  <si>
+    <t>R5C6:R5C9</t>
+  </si>
+  <si>
+    <t>R2C1:R2C9</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>R2C10:R2C12</t>
+  </si>
+  <si>
+    <t>R5C5:R5C9</t>
+  </si>
+  <si>
+    <t>R5C1:R5C4</t>
+  </si>
+  <si>
+    <t>GC_P_BWD A2 2011</t>
+  </si>
+  <si>
+    <t>22 - Rt Demi</t>
+  </si>
+  <si>
+    <t>R9C5:R9C7</t>
+  </si>
+  <si>
+    <t>R9C8:R9C10</t>
+  </si>
+  <si>
+    <t>R8C5:R8C7</t>
+  </si>
+  <si>
+    <t>R8C8:R8C10</t>
+  </si>
+  <si>
+    <t>R7C5:R7C7</t>
+  </si>
+  <si>
+    <t>R7C8:R7C10</t>
+  </si>
+  <si>
+    <t>R6C5:R6C7</t>
+  </si>
+  <si>
+    <t>R6C8:R6C10</t>
+  </si>
+  <si>
+    <t>R5C1:R5C7</t>
+  </si>
+  <si>
+    <t>R5C8:R5C10</t>
+  </si>
+  <si>
+    <t>R9C4:R9C7</t>
+  </si>
+  <si>
+    <t>R9C1:R9C3</t>
+  </si>
+  <si>
+    <t>R8C4:R8C7</t>
+  </si>
+  <si>
+    <t>R8C1:R8C3</t>
+  </si>
+  <si>
+    <t>R7C4:R7C7</t>
+  </si>
+  <si>
+    <t>R7C1:R7C3</t>
+  </si>
+  <si>
+    <t>R6C4:R6C7</t>
+  </si>
+  <si>
+    <t>R6C1:R6C3</t>
+  </si>
+  <si>
+    <t>GC_P_BWD A2 2011 non SS</t>
+  </si>
+  <si>
+    <t>20 - Rt Other</t>
+  </si>
+  <si>
+    <t>21 - Kent HD</t>
+  </si>
+  <si>
+    <t>R5C5:R5C7</t>
+  </si>
+  <si>
+    <t>R4C1:R4C10</t>
+  </si>
+  <si>
+    <t>R5C4:R5C7</t>
+  </si>
+  <si>
+    <t>R5C1:R5C3</t>
+  </si>
+  <si>
+    <t>GC_P_BWD Premium black 11x15</t>
+  </si>
+  <si>
+    <t>1 - Rt Demi</t>
+  </si>
+  <si>
+    <t>R9C1:R9C7</t>
+  </si>
+  <si>
+    <t>R9C8:R9C12</t>
+  </si>
+  <si>
+    <t>R9C13:R9C15</t>
+  </si>
+  <si>
+    <t>R8C1:R8C7</t>
+  </si>
+  <si>
+    <t>R8C8:R8C12</t>
+  </si>
+  <si>
+    <t>R8C13:R8C15</t>
+  </si>
+  <si>
+    <t>R7C1:R7C7</t>
+  </si>
+  <si>
+    <t>R7C8:R7C12</t>
+  </si>
+  <si>
+    <t>R7C13:R7C15</t>
+  </si>
+  <si>
+    <t>R6C1:R6C7</t>
+  </si>
+  <si>
+    <t>R6C8:R6C12</t>
+  </si>
+  <si>
+    <t>R6C13:R6C15</t>
+  </si>
+  <si>
+    <t>R5C1:R5C12</t>
+  </si>
+  <si>
+    <t>R5C13:R5C15</t>
+  </si>
+  <si>
+    <t>R9C6:R9C12</t>
+  </si>
+  <si>
+    <t>R8C6:R8C12</t>
+  </si>
+  <si>
+    <t>R7C6:R7C12</t>
+  </si>
+  <si>
+    <t>R6C6:R6C12</t>
+  </si>
+  <si>
+    <t>GC_P_BWD Premium 9 x 12</t>
+  </si>
+  <si>
+    <t>R4C1:R4C9</t>
+  </si>
+  <si>
+    <t>R4C10:R4C12</t>
+  </si>
+  <si>
+    <t>GC_P_BWD Premium 9 x 15</t>
+  </si>
+  <si>
+    <t>R5C8:R5C12</t>
+  </si>
+  <si>
+    <t>R4C1:R4C12</t>
+  </si>
+  <si>
+    <t>R4C13:R4C15</t>
+  </si>
+  <si>
+    <t>R5C6:R5C12</t>
+  </si>
+  <si>
+    <t>GC_P_BWD SS Door Slim 11*15</t>
+  </si>
+  <si>
+    <t>R2C1:R2C12</t>
+  </si>
+  <si>
+    <t>R2C13:R2C15</t>
+  </si>
+  <si>
+    <t>GC_P_BWD SS Door Oval 11*15</t>
+  </si>
+  <si>
+    <t>GC_P_BWD SS Door Oval 11*12</t>
+  </si>
+  <si>
+    <t>GC_P_BWD SS Flaps 11*15</t>
+  </si>
+  <si>
+    <t>R1C1:R1C12</t>
+  </si>
+  <si>
+    <t>R1C13:R1C15</t>
+  </si>
+  <si>
+    <t>GC_P_BWD SS Flaps 11*12</t>
+  </si>
+  <si>
+    <t>R1C1:R1C9</t>
+  </si>
+  <si>
+    <t>R1C10:R1C12</t>
+  </si>
+  <si>
+    <t>R5C5:R5C10</t>
+  </si>
+  <si>
+    <t>GC_P_ DSP BWD Flaps 8*15</t>
+  </si>
+  <si>
+    <t>GC_P_ DSP BWD Flaps 8*12</t>
+  </si>
+  <si>
+    <t>GC_P_ DSP BWD Flaps 8*10</t>
+  </si>
+  <si>
+    <t>R4C1:R4C7</t>
+  </si>
+  <si>
+    <t>R4C8:R4C10</t>
+  </si>
+  <si>
+    <t>TEST_BWD SS 12*15 Local Elby</t>
+  </si>
+  <si>
+    <t>TEST_BWD SS 12*15 Local PVG</t>
+  </si>
+  <si>
+    <t>R3C6:R3C12</t>
+  </si>
+  <si>
+    <t>2 - Kent DL</t>
+  </si>
+  <si>
+    <t>R3C1:R3C5</t>
+  </si>
+  <si>
+    <t>R3C13:R3C15</t>
+  </si>
+  <si>
+    <t>R4C6:R4C12</t>
+  </si>
+  <si>
+    <t>R4C1:R4C5</t>
+  </si>
+  <si>
+    <t>7 - Royals Demi</t>
+  </si>
+  <si>
+    <t>10 - Royals KS</t>
+  </si>
+  <si>
+    <t>11 - Kent Other</t>
+  </si>
+  <si>
+    <t>GC_P_OHD Self-Service 3х20</t>
+  </si>
+  <si>
+    <t>15 - Kent</t>
+  </si>
+  <si>
+    <t>R3C1:R3C11</t>
+  </si>
+  <si>
+    <t>16 - Rothmans</t>
+  </si>
+  <si>
+    <t>R3C12:R3C20</t>
+  </si>
+  <si>
+    <t>17 - Yava</t>
+  </si>
+  <si>
+    <t>R2C1:R2C8</t>
+  </si>
+  <si>
+    <t>18 - Rest</t>
+  </si>
+  <si>
+    <t>R2C9:R2C15</t>
+  </si>
+  <si>
+    <t>19 - Royals</t>
+  </si>
+  <si>
+    <t>R2C16:R2C20</t>
+  </si>
+  <si>
+    <t>GC_P_OHD Self-Service 3х20 Flaps</t>
+  </si>
+  <si>
+    <t>GC_P_OHD PackMan 3х20</t>
+  </si>
+  <si>
+    <t>R2C19:R2C20</t>
+  </si>
+  <si>
+    <t>TEST_OHD SS 3*20 Local Elby</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>SKU ID</t>
+  </si>
+  <si>
+    <t>product_ean_code</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Index (Duplications priority)</t>
+  </si>
+  <si>
+    <t>Rothmans Demi Blue</t>
+  </si>
+  <si>
+    <t>1-1Z9QGHH</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Rothmans Nanokings</t>
+  </si>
+  <si>
+    <t>1-1ZZTLXA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Rothmans Demi Silver</t>
+  </si>
+  <si>
+    <t>1-214F80L</t>
+  </si>
+  <si>
+    <t>Rothmans SS Click</t>
+  </si>
+  <si>
+    <t>1-1Y66O1C</t>
+  </si>
+  <si>
+    <t>Rothmans International</t>
+  </si>
+  <si>
+    <t>1-I3-293</t>
+  </si>
+  <si>
+    <t>Rothmans International PHL</t>
+  </si>
+  <si>
+    <t>Pos-000003</t>
+  </si>
+  <si>
+    <t>Rothmans SS Silver</t>
+  </si>
+  <si>
+    <t>1-1X7ZJW5</t>
+  </si>
+  <si>
+    <t>Kent Nano Mix Amber PHL</t>
+  </si>
+  <si>
+    <t>Pos-000002</t>
+  </si>
+  <si>
+    <t>Kent Nano Mix Amber PHL - Left</t>
+  </si>
+  <si>
+    <t>Pos-000004</t>
+  </si>
+  <si>
+    <t>Kent Nano Mix Amber PHL - Right</t>
+  </si>
+  <si>
+    <t>Pos-000005</t>
+  </si>
+  <si>
+    <t>Kent Nano Mix Amber</t>
+  </si>
+  <si>
+    <t>1-26BSJ6T</t>
+  </si>
+  <si>
+    <t>Kent Nano Mix</t>
+  </si>
+  <si>
+    <t>1-244ZTNM</t>
+  </si>
+  <si>
+    <t>Kent Neostiks Bright Tobacco</t>
+  </si>
+  <si>
+    <t>1-24YB1M1</t>
+  </si>
+  <si>
+    <t>Kent Neostiks Citric Mix</t>
+  </si>
+  <si>
+    <t>1-24YB1MB</t>
+  </si>
+  <si>
+    <t>Kent Neostiks Fresh Mix</t>
+  </si>
+  <si>
+    <t>1-24YB1ML</t>
+  </si>
+  <si>
+    <t>Vogue Bleue</t>
+  </si>
+  <si>
+    <t>1-I3-302</t>
+  </si>
+  <si>
+    <t>Vogue Lilas</t>
+  </si>
+  <si>
+    <t>1-I3-304</t>
+  </si>
+  <si>
+    <t>Vogue Menthe</t>
+  </si>
+  <si>
+    <t>1-I3-303</t>
+  </si>
+  <si>
+    <t>Vogue Arome Diner en Ville</t>
+  </si>
+  <si>
+    <t>1-44LWV7</t>
+  </si>
+  <si>
+    <t>Rothmans Demi Click</t>
+  </si>
+  <si>
+    <t>1-223WA7H</t>
+  </si>
+  <si>
+    <t>Rothmans Mandarin</t>
+  </si>
+  <si>
+    <t>1-24U8991</t>
+  </si>
+  <si>
+    <t>Rothmans Demi Aero Blue</t>
+  </si>
+  <si>
+    <t>1-23RD3HA</t>
+  </si>
+  <si>
+    <t>Kent Nanotek 2.0 Silver</t>
+  </si>
+  <si>
+    <t>1-EOGSAU</t>
+  </si>
+  <si>
+    <t>Kent Nanotek 2.0 White</t>
+  </si>
+  <si>
+    <t>1-EOGSB7</t>
+  </si>
+  <si>
+    <t>Kent iSwitch</t>
+  </si>
+  <si>
+    <t>1-1USSGBP</t>
+  </si>
+  <si>
+    <t>Kent Nanotek 2.0 Blue</t>
+  </si>
+  <si>
+    <t>Kent Hdi Blue</t>
+  </si>
+  <si>
+    <t>1-244ZTMS</t>
+  </si>
+  <si>
+    <t>Kent HDs Blue</t>
+  </si>
+  <si>
+    <t>1-1X73453</t>
+  </si>
+  <si>
+    <t>Vogue Unique</t>
+  </si>
+  <si>
+    <t>1-25TEECZ</t>
+  </si>
+  <si>
+    <t>Vogue Unique PHL</t>
+  </si>
+  <si>
+    <t>pos-000001</t>
+  </si>
+  <si>
+    <t>Rothmans KS Blue</t>
+  </si>
+  <si>
+    <t>1-1Y66O2P</t>
+  </si>
+  <si>
+    <t>Rothmans KS Silver</t>
+  </si>
+  <si>
+    <t>1-1Y66O2Z</t>
+  </si>
+  <si>
+    <t>Royals KS Red</t>
+  </si>
+  <si>
+    <t>1-23J1KKF</t>
+  </si>
+  <si>
+    <t>Royals KS Blue</t>
+  </si>
+  <si>
+    <t>1-22ZS7MO</t>
+  </si>
+  <si>
+    <t>Kent HD Futura</t>
+  </si>
+  <si>
+    <t>1-I3-309</t>
+  </si>
+  <si>
+    <t>Kent HD Neo</t>
+  </si>
+  <si>
+    <t>1-I3-310</t>
+  </si>
+  <si>
+    <t>Kent HD Infina</t>
+  </si>
+  <si>
+    <t>1-I3-273</t>
+  </si>
+  <si>
+    <t>Yava Gold Turbo Demi</t>
+  </si>
+  <si>
+    <t>1-244ZTLB</t>
+  </si>
+  <si>
+    <t>Yava Gold Old</t>
+  </si>
+  <si>
+    <t>1-1XA2D13</t>
+  </si>
+  <si>
+    <t>Yava Gold Classic</t>
+  </si>
+  <si>
+    <t>1-I3-397</t>
+  </si>
+  <si>
+    <t>Yava Turbo</t>
+  </si>
+  <si>
+    <t>Yava SC Classic</t>
+  </si>
+  <si>
+    <t>1-I3-322</t>
+  </si>
+  <si>
+    <t>Yava SC Original</t>
+  </si>
+  <si>
+    <t>1-I3-319</t>
+  </si>
+  <si>
+    <t>Yava Gold Classic 25 Stx</t>
+  </si>
+  <si>
+    <t>1-23366VZ</t>
+  </si>
+  <si>
+    <t>Yava HL Classic 25 sticks</t>
+  </si>
+  <si>
+    <t>1-23366WD</t>
+  </si>
+  <si>
+    <t>Royals Demi</t>
+  </si>
+  <si>
+    <t>1-22ZMXKP</t>
+  </si>
+  <si>
+    <t>Royals Berry</t>
+  </si>
+  <si>
+    <t>1-24U899V</t>
+  </si>
+  <si>
+    <t>Royals Nanokings</t>
+  </si>
+  <si>
+    <t>1-24AQHX3</t>
+  </si>
+  <si>
+    <t>Kent D-Mix</t>
+  </si>
+  <si>
+    <t>1-244ZTLX</t>
+  </si>
+  <si>
+    <t>Kent D-Series</t>
+  </si>
+  <si>
+    <t>Kent D-Mix Plus</t>
+  </si>
+  <si>
+    <t>1-249YDT8</t>
+  </si>
+  <si>
+    <t>Yava White Gold Classic</t>
+  </si>
+  <si>
+    <t>1-216K8LY</t>
+  </si>
+  <si>
+    <t>Yava Gold Classic 100s</t>
+  </si>
+  <si>
+    <t>1-23J1KKP</t>
+  </si>
+  <si>
+    <t>Dallas Blue</t>
+  </si>
+  <si>
+    <t>1-I3-265</t>
+  </si>
+  <si>
+    <t>Dallas Red</t>
+  </si>
+  <si>
+    <t>Dunhill Fine Cut Blond Bland</t>
+  </si>
+  <si>
+    <t>1-VVEYS8</t>
+  </si>
+  <si>
+    <t>Dunhill Fine Cut Dark Blue</t>
+  </si>
+  <si>
+    <t>1-K2JYMZ</t>
+  </si>
+  <si>
+    <t>Dunhill FC Master Blend Blue</t>
+  </si>
+  <si>
+    <t>1-K2JYMS</t>
+  </si>
+  <si>
+    <t>Dunhill FC Swiss Blend</t>
+  </si>
+  <si>
+    <t>1-K2JYMK</t>
+  </si>
+  <si>
+    <t>Dunhill KS MB Blue</t>
+  </si>
+  <si>
+    <t>1-I3-271</t>
+  </si>
+  <si>
+    <t>Dunhill KS MB Gold</t>
+  </si>
+  <si>
+    <t>1-I3-272</t>
+  </si>
+  <si>
+    <t>Dunhill KS MB Red</t>
+  </si>
+  <si>
+    <t>1-I3-266</t>
+  </si>
+  <si>
+    <t>Silk</t>
+  </si>
+  <si>
+    <t>1-20JIR06</t>
+  </si>
+  <si>
+    <t>Viceroy Blue</t>
+  </si>
+  <si>
+    <t>1-1D6LZW</t>
+  </si>
+  <si>
+    <t>Viceroy Red</t>
+  </si>
+  <si>
+    <t>1-1D6LZP</t>
+  </si>
+  <si>
+    <t>Lucky Strike Premium Blue</t>
+  </si>
+  <si>
+    <t>1-1Z4HHNK</t>
+  </si>
+  <si>
+    <t>Lucky Strike Premium Silver</t>
+  </si>
+  <si>
+    <t>1-1Z4IKCD</t>
+  </si>
+  <si>
+    <t>Pall Mall KS Blue</t>
+  </si>
+  <si>
+    <t>1-111PWZP</t>
+  </si>
+  <si>
+    <t>Pall Mall KS Red</t>
+  </si>
+  <si>
+    <t>1-111PWZU</t>
+  </si>
+  <si>
+    <t>Pall Mall Nanokings Blue</t>
+  </si>
+  <si>
+    <t>1-152HINK</t>
+  </si>
+  <si>
+    <t>Pall Mall SS Blue</t>
+  </si>
+  <si>
+    <t>1-I3-285</t>
+  </si>
+  <si>
+    <t>Pall Mall SS Menthol</t>
+  </si>
+  <si>
+    <t>1-1QSYU5</t>
+  </si>
+  <si>
+    <t>Alliance Classic</t>
+  </si>
+  <si>
+    <t>Alliance Demi</t>
+  </si>
+  <si>
+    <t>1-1ZXH2W6</t>
+  </si>
+  <si>
+    <t>Alliance Modern</t>
+  </si>
+  <si>
+    <t>Alliance Modern Slims</t>
+  </si>
+  <si>
+    <t>1-1X2NZWZ</t>
+  </si>
+  <si>
+    <t>Alliance Original</t>
+  </si>
+  <si>
+    <t>Alliance Original Compact</t>
+  </si>
+  <si>
+    <t>Alliance Original Slims</t>
+  </si>
+  <si>
+    <t>1-1X2NZWU</t>
+  </si>
+  <si>
+    <t>Alliance Classic 25</t>
+  </si>
+  <si>
+    <t>1-21VR1SF</t>
+  </si>
+  <si>
+    <t>Alliance Original 25</t>
+  </si>
+  <si>
+    <t>1-21VR1S1</t>
+  </si>
+  <si>
+    <t>Priluki Osoblivi Classic</t>
+  </si>
+  <si>
+    <t>1-20XVOZP</t>
+  </si>
+  <si>
+    <t>Priluki Osoblivi Sophisticated</t>
+  </si>
+  <si>
+    <t>1-20XVOZ3</t>
+  </si>
+  <si>
+    <t>Alliance Premium</t>
+  </si>
+  <si>
+    <t>Yava Gold Original</t>
+  </si>
+  <si>
+    <t>1-I3-398</t>
+  </si>
+  <si>
+    <t>Yava Original</t>
+  </si>
+  <si>
+    <t>1-I3-320</t>
+  </si>
+  <si>
+    <t>Yava White Gold Original</t>
+  </si>
+  <si>
+    <t>1-216K8MJ</t>
+  </si>
+  <si>
+    <t>Kent D-mix plus</t>
+  </si>
+  <si>
+    <t>Yava Gold Turbo</t>
+  </si>
+  <si>
+    <t>Dunhill FC Blond Blend</t>
+  </si>
+  <si>
+    <t>Dunhill FC Master Blend</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Kent D-mix</t>
+  </si>
+  <si>
+    <t>Dunhill Fine Cut Swiss Bland</t>
+  </si>
+  <si>
+    <t>Dunhill Fine Cut Sky Blue</t>
+  </si>
+  <si>
+    <t>Dunhill Master Blend Red</t>
+  </si>
+  <si>
+    <t>Dunhill Master Blend Blue</t>
+  </si>
+  <si>
+    <t>Dunhill Master Blend Gold</t>
+  </si>
+  <si>
+    <t>start_shelf</t>
+  </si>
+  <si>
+    <t>end_shelf</t>
+  </si>
+  <si>
+    <t>product_english_name</t>
+  </si>
+  <si>
+    <t>Kent Black</t>
+  </si>
+  <si>
+    <t>Kent HDi Blue</t>
+  </si>
+  <si>
+    <t>1-1YT2JWW</t>
+  </si>
+  <si>
+    <t>1-148QT8L</t>
+  </si>
+  <si>
+    <t>Rothmans SS Blue</t>
+  </si>
+  <si>
+    <t>1-23Q4OGL</t>
+  </si>
+  <si>
+    <t>Yava Classic</t>
+  </si>
+  <si>
+    <t>1-I3-323</t>
+  </si>
+  <si>
+    <t>1-1WXI3F6</t>
+  </si>
+  <si>
+    <t>Yava Gold Ultra Turbo</t>
+  </si>
+  <si>
+    <t>1-1X9GDMR</t>
+  </si>
+  <si>
+    <t>NOT NEEDED</t>
+  </si>
+  <si>
+    <t>Yava Modern</t>
+  </si>
+  <si>
+    <t>1-I3-321</t>
+  </si>
+  <si>
+    <t>1-I3-264</t>
+  </si>
+  <si>
+    <t>1-I3-259</t>
+  </si>
+  <si>
+    <t>1-I3-261</t>
+  </si>
+  <si>
+    <t>1-I3-260</t>
+  </si>
+  <si>
+    <t>1-1XAVBUB</t>
+  </si>
+  <si>
+    <t>1-1ZBSHBB</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>attribute_3</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>Names of template in SR</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - Kent_Amber (1).jpg, GC_A_TN_SAS Frame - Kent_Amber (10).jpg, GC_A_TN_SAS Frame - Kent_Amber (2).jpg, GC_A_TN_SAS Frame - Kent_Amber (3).jpg, GC_A_TN_SAS Frame - Kent_Amber (4).jpg, GC_A_TN_SAS Frame - Kent_Amber (5).jpg, GC_A_TN_SAS Frame - Kent_Amber (6).jpg, GC_A_TN_SAS Frame - Kent_Amber (7).jpg, GC_A_TN_SAS Frame - Kent_Amber (8).jpg, GC_A_TN_SAS Frame - Kent_Amber (9).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber.jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_SAS Frame - RTM_International (1).jpg, GC_A_TN_SAS Frame - RTM_International (2).jpg, GC_A_TN_SAS Frame - RTM_International (3).jpg, GC_A_TN_SAS Frame - RTM_International (4).jpg, GC_A_TN_SAS Frame - RTM_International (5).jpg, GC_A_TN_SAS Frame - RTM_International (6).jpg, GC_A_TN_SAS Frame - RTM_International (7).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - Kent_Amber (1).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (2).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (3).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (4).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (5).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - Kent_Amber (1).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_BackGround_for_BWD - RTM_International (1).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (2).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (3).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (4).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (5).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD - RTM_International (1).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (2).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (3).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (4).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Shelf Strip for SAS - RTM_International (1).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (2).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (3).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (4).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (5).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (6).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (7).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (8).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (1).jpg, GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (2).jpg</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - RTM_International</t>
+  </si>
+  <si>
+    <t>GC_A_TN_Carboard SAS for BWD gor. - RTM_International.jpg</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1316,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
@@ -1784,15 +1790,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>734760</xdr:colOff>
+      <xdr:colOff>761400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1805,8 +1811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30702960" y="1440"/>
-          <a:ext cx="2612160" cy="171720"/>
+          <a:off x="30942000" y="1440"/>
+          <a:ext cx="2604240" cy="171360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1821,15 +1827,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>749520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>724320</xdr:colOff>
+      <xdr:colOff>750960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1842,8 +1848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30168720" y="36000"/>
-          <a:ext cx="4703040" cy="101160"/>
+          <a:off x="30410280" y="27000"/>
+          <a:ext cx="4687560" cy="100800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,15 +1864,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>492480</xdr:colOff>
+      <xdr:colOff>519480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>677520</xdr:colOff>
+      <xdr:colOff>704160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1879,8 +1885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33072840" y="3240"/>
-          <a:ext cx="2535840" cy="169920"/>
+          <a:off x="33304320" y="3240"/>
+          <a:ext cx="2527920" cy="169560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,22 +1934,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7287449392713"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.8744939271255"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4453441295547"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24872,7 +24878,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N511"/>
+  <autoFilter ref="A1:N521"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -24891,17 +24897,17 @@
   </sheetPr>
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A234" activeCellId="0" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.91093117408907"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28480,14 +28486,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7287449392713"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0364372469636"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.91902834008097"/>
-    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.64372469635628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29506,18 +29512,18 @@
   <dimension ref="A1:AMH43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30889,7 +30895,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41"/>
+  <autoFilter ref="A1:D43"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30908,18 +30914,18 @@
   </sheetPr>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="45.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.64372469635628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31817,11 +31823,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.1902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.8866396761134"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -32457,20 +32463,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0121457489879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.6153846153846"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32492,13 +32498,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>373</v>
@@ -32509,7 +32515,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>63</v>
@@ -32526,13 +32532,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>377</v>
@@ -32543,13 +32549,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>379</v>
@@ -32560,13 +32566,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>381</v>
@@ -32577,10 +32583,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>46</v>
@@ -32594,10 +32600,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>46</v>
@@ -32611,302 +32617,302 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>379</v>
@@ -32917,27 +32923,27 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>46</v>
@@ -32951,903 +32957,308 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E66" s="0" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATRU/Data/P3_template.xlsx
+++ b/Projects/BATRU/Data/P3_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,18 +18,18 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
@@ -55,6 +56,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
@@ -71,13 +73,14 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
@@ -87,6 +90,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
@@ -103,6 +107,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
@@ -119,6 +124,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -130,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="392">
   <si>
     <t>State</t>
   </si>
@@ -174,7 +180,7 @@
     <t>end_sequence</t>
   </si>
   <si>
-    <t>All</t>
+    <t>ALL</t>
   </si>
   <si>
     <t>GC_P_BWD Premium black 11x12</t>
@@ -1246,9 +1252,6 @@
   </si>
   <si>
     <t>Names of template in SR</t>
-  </si>
-  <si>
-    <t>ALL</t>
   </si>
   <si>
     <t>GC_A_TN_SAS Frame - Kent_Amber</t>
@@ -1574,11 +1577,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1790,15 +1793,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>500400</xdr:colOff>
+      <xdr:colOff>527400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,8 +1814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30942000" y="1440"/>
-          <a:ext cx="2604240" cy="171360"/>
+          <a:off x="31178520" y="1440"/>
+          <a:ext cx="2603880" cy="171000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,15 +1830,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>749520</xdr:colOff>
+      <xdr:colOff>776520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>750960</xdr:colOff>
+      <xdr:colOff>777600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1848,8 +1851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30410280" y="27000"/>
-          <a:ext cx="4687560" cy="100800"/>
+          <a:off x="30646800" y="18000"/>
+          <a:ext cx="4687200" cy="100440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,15 +1867,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>519480</xdr:colOff>
+      <xdr:colOff>546480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>704160</xdr:colOff>
+      <xdr:colOff>730800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1885,8 +1888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33304320" y="3240"/>
-          <a:ext cx="2527920" cy="169560"/>
+          <a:off x="33540840" y="3240"/>
+          <a:ext cx="2527560" cy="169200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,27 +1931,27 @@
   </sheetPr>
   <dimension ref="A1:O521"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -7718,13 +7721,13 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="11" t="s">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="10" t="n">
+      <c r="C132" s="11" t="n">
         <v>9</v>
       </c>
       <c r="D132" s="12" t="s">
@@ -7742,22 +7745,22 @@
       <c r="H132" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" s="10" t="n">
+      <c r="I132" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="L132" s="10" t="n">
+      <c r="L132" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="M132" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N132" s="10" t="n">
+      <c r="M132" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N132" s="11" t="n">
         <v>11</v>
       </c>
     </row>
@@ -24878,7 +24881,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N521"/>
+  <autoFilter ref="A1:N511"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -24897,16 +24900,16 @@
   </sheetPr>
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A234" activeCellId="0" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -28486,10 +28489,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
@@ -28594,7 +28597,7 @@
       <c r="B8" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="21"/>
@@ -28607,7 +28610,7 @@
       <c r="B9" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="21"/>
@@ -28620,7 +28623,7 @@
       <c r="B10" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="21"/>
@@ -28633,7 +28636,7 @@
       <c r="B11" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="21"/>
@@ -28646,7 +28649,7 @@
       <c r="B12" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="21"/>
@@ -28659,7 +28662,7 @@
       <c r="B13" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="11" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="21"/>
@@ -28672,7 +28675,7 @@
       <c r="B14" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="21"/>
@@ -28685,7 +28688,7 @@
       <c r="B15" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="21"/>
@@ -28698,7 +28701,7 @@
       <c r="B16" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="21"/>
@@ -28711,7 +28714,7 @@
       <c r="B17" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="21"/>
@@ -28724,7 +28727,7 @@
       <c r="B18" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="11" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="21"/>
@@ -28737,7 +28740,7 @@
       <c r="B19" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="11" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="21"/>
@@ -28750,7 +28753,7 @@
       <c r="B20" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="11" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="21"/>
@@ -28763,7 +28766,7 @@
       <c r="B21" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="11" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="30"/>
@@ -28776,7 +28779,7 @@
       <c r="B22" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="11" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="30"/>
@@ -28789,7 +28792,7 @@
       <c r="B23" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="11" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="30"/>
@@ -28802,7 +28805,7 @@
       <c r="B24" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="11" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="30"/>
@@ -28815,7 +28818,7 @@
       <c r="B25" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="11" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="30"/>
@@ -28828,7 +28831,7 @@
       <c r="B26" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C26" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="30"/>
@@ -28841,7 +28844,7 @@
       <c r="B27" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C27" s="11" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="30"/>
@@ -28854,7 +28857,7 @@
       <c r="B28" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C28" s="11" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="30"/>
@@ -28867,7 +28870,7 @@
       <c r="B29" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="11" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="30"/>
@@ -28880,7 +28883,7 @@
       <c r="B30" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="10" t="n">
+      <c r="C30" s="11" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="30"/>
@@ -28893,7 +28896,7 @@
       <c r="B31" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C31" s="11" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="30"/>
@@ -28906,7 +28909,7 @@
       <c r="B32" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="11" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="30"/>
@@ -28919,7 +28922,7 @@
       <c r="B33" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="11" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="30"/>
@@ -28932,7 +28935,7 @@
       <c r="B34" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="11" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="30"/>
@@ -28945,7 +28948,7 @@
       <c r="B35" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="11" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="30"/>
@@ -28958,7 +28961,7 @@
       <c r="B36" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="30"/>
@@ -28971,7 +28974,7 @@
       <c r="B37" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="11" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="30"/>
@@ -28984,7 +28987,7 @@
       <c r="B38" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="11" t="n">
         <v>37</v>
       </c>
       <c r="D38" s="30"/>
@@ -28997,7 +29000,7 @@
       <c r="B39" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="11" t="n">
         <v>38</v>
       </c>
       <c r="D39" s="30"/>
@@ -29010,7 +29013,7 @@
       <c r="B40" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="11" t="n">
         <v>39</v>
       </c>
       <c r="D40" s="30"/>
@@ -29023,7 +29026,7 @@
       <c r="B41" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="10" t="n">
+      <c r="C41" s="11" t="n">
         <v>40</v>
       </c>
       <c r="D41" s="30"/>
@@ -29036,7 +29039,7 @@
       <c r="B42" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="10" t="n">
+      <c r="C42" s="11" t="n">
         <v>41</v>
       </c>
       <c r="D42" s="30"/>
@@ -29049,7 +29052,7 @@
       <c r="B43" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="10" t="n">
+      <c r="C43" s="11" t="n">
         <v>42</v>
       </c>
       <c r="D43" s="30"/>
@@ -29062,7 +29065,7 @@
       <c r="B44" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="C44" s="10" t="n">
+      <c r="C44" s="11" t="n">
         <v>43</v>
       </c>
       <c r="D44" s="30"/>
@@ -29075,7 +29078,7 @@
       <c r="B45" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C45" s="10" t="n">
+      <c r="C45" s="11" t="n">
         <v>44</v>
       </c>
       <c r="D45" s="30"/>
@@ -29088,7 +29091,7 @@
       <c r="B46" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="C46" s="10" t="n">
+      <c r="C46" s="11" t="n">
         <v>45</v>
       </c>
       <c r="D46" s="30"/>
@@ -29101,7 +29104,7 @@
       <c r="B47" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C47" s="10" t="n">
+      <c r="C47" s="11" t="n">
         <v>46</v>
       </c>
       <c r="D47" s="30"/>
@@ -29114,7 +29117,7 @@
       <c r="B48" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="10" t="n">
+      <c r="C48" s="11" t="n">
         <v>47</v>
       </c>
       <c r="D48" s="30"/>
@@ -29127,7 +29130,7 @@
       <c r="B49" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C49" s="10" t="n">
+      <c r="C49" s="11" t="n">
         <v>48</v>
       </c>
       <c r="D49" s="30"/>
@@ -29140,7 +29143,7 @@
       <c r="B50" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C50" s="10" t="n">
+      <c r="C50" s="11" t="n">
         <v>49</v>
       </c>
       <c r="D50" s="30"/>
@@ -29153,7 +29156,7 @@
       <c r="B51" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="10" t="n">
+      <c r="C51" s="11" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="30"/>
@@ -29166,7 +29169,7 @@
       <c r="B52" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="C52" s="10" t="n">
+      <c r="C52" s="11" t="n">
         <v>51</v>
       </c>
       <c r="D52" s="21"/>
@@ -29179,7 +29182,7 @@
       <c r="B53" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C53" s="10" t="n">
+      <c r="C53" s="11" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="21"/>
@@ -29192,7 +29195,7 @@
       <c r="B54" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C54" s="10" t="n">
+      <c r="C54" s="11" t="n">
         <v>53</v>
       </c>
       <c r="D54" s="21"/>
@@ -29205,7 +29208,7 @@
       <c r="B55" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="C55" s="10" t="n">
+      <c r="C55" s="11" t="n">
         <v>54</v>
       </c>
     </row>
@@ -29216,7 +29219,7 @@
       <c r="B56" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="10" t="n">
+      <c r="C56" s="11" t="n">
         <v>54</v>
       </c>
     </row>
@@ -29227,7 +29230,7 @@
       <c r="B57" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="10" t="n">
+      <c r="C57" s="11" t="n">
         <v>55</v>
       </c>
     </row>
@@ -29238,7 +29241,7 @@
       <c r="B58" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C58" s="10" t="n">
+      <c r="C58" s="11" t="n">
         <v>56</v>
       </c>
     </row>
@@ -29249,7 +29252,7 @@
       <c r="B59" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="C59" s="10" t="n">
+      <c r="C59" s="11" t="n">
         <v>57</v>
       </c>
     </row>
@@ -29260,7 +29263,7 @@
       <c r="B60" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="10" t="n">
+      <c r="C60" s="11" t="n">
         <v>58</v>
       </c>
     </row>
@@ -29271,7 +29274,7 @@
       <c r="B61" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="10" t="n">
+      <c r="C61" s="11" t="n">
         <v>59</v>
       </c>
     </row>
@@ -29282,7 +29285,7 @@
       <c r="B62" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="10" t="n">
+      <c r="C62" s="11" t="n">
         <v>60</v>
       </c>
     </row>
@@ -29511,17 +29514,17 @@
   </sheetPr>
   <dimension ref="A1:AMH43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -30895,7 +30898,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D43"/>
+  <autoFilter ref="A1:D41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30920,8 +30923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
@@ -31716,7 +31719,7 @@
       <c r="B72" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C72" s="10" t="n">
+      <c r="C72" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31727,7 +31730,7 @@
       <c r="B73" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="10" t="n">
+      <c r="C73" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31738,7 +31741,7 @@
       <c r="B74" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="10" t="n">
+      <c r="C74" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31749,7 +31752,7 @@
       <c r="B75" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="10" t="n">
+      <c r="C75" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31760,7 +31763,7 @@
       <c r="B76" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="10" t="n">
+      <c r="C76" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31771,7 +31774,7 @@
       <c r="B77" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="10" t="n">
+      <c r="C77" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31782,7 +31785,7 @@
       <c r="B78" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="10" t="n">
+      <c r="C78" s="11" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31793,7 +31796,7 @@
       <c r="B79" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="10" t="n">
+      <c r="C79" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31824,9 +31827,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -32465,17 +32468,17 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -32498,7 +32501,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>63</v>
@@ -32507,15 +32510,15 @@
         <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>63</v>
@@ -32524,15 +32527,15 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>63</v>
@@ -32541,15 +32544,15 @@
         <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>110</v>
@@ -32558,15 +32561,15 @@
         <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>110</v>
@@ -32575,15 +32578,15 @@
         <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>110</v>
@@ -32592,15 +32595,15 @@
         <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>110</v>
@@ -32609,15 +32612,15 @@
         <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>110</v>
@@ -32626,15 +32629,15 @@
         <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>113</v>
@@ -32643,15 +32646,15 @@
         <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>113</v>
@@ -32660,15 +32663,15 @@
         <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>113</v>
@@ -32677,15 +32680,15 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>113</v>
@@ -32694,15 +32697,15 @@
         <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>113</v>
@@ -32711,15 +32714,15 @@
         <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
@@ -32728,15 +32731,15 @@
         <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>15</v>
@@ -32745,15 +32748,15 @@
         <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>15</v>
@@ -32762,15 +32765,15 @@
         <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>90</v>
@@ -32779,15 +32782,15 @@
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>90</v>
@@ -32796,15 +32799,15 @@
         <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>90</v>
@@ -32813,15 +32816,15 @@
         <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>122</v>
@@ -32830,15 +32833,15 @@
         <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>122</v>
@@ -32847,15 +32850,15 @@
         <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>122</v>
@@ -32864,15 +32867,15 @@
         <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>122</v>
@@ -32881,15 +32884,15 @@
         <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>122</v>
@@ -32898,15 +32901,15 @@
         <v>46</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>121</v>
@@ -32915,15 +32918,15 @@
         <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>121</v>
@@ -32932,15 +32935,15 @@
         <v>16</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>121</v>
@@ -32949,15 +32952,15 @@
         <v>46</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>121</v>
@@ -32966,15 +32969,15 @@
         <v>46</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>121</v>
@@ -32983,15 +32986,15 @@
         <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>55</v>
@@ -33000,15 +33003,15 @@
         <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>55</v>
@@ -33017,15 +33020,15 @@
         <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>55</v>
@@ -33034,15 +33037,15 @@
         <v>46</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>118</v>
@@ -33051,15 +33054,15 @@
         <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>118</v>
@@ -33068,15 +33071,15 @@
         <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>118</v>
@@ -33085,15 +33088,15 @@
         <v>46</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>126</v>
@@ -33102,15 +33105,15 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>126</v>
@@ -33119,15 +33122,15 @@
         <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>126</v>
@@ -33136,15 +33139,15 @@
         <v>46</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>126</v>
@@ -33153,15 +33156,15 @@
         <v>46</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>126</v>
@@ -33170,15 +33173,15 @@
         <v>46</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>123</v>
@@ -33187,15 +33190,15 @@
         <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>123</v>
@@ -33204,15 +33207,15 @@
         <v>16</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>123</v>
@@ -33221,15 +33224,15 @@
         <v>46</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>123</v>
@@ -33238,15 +33241,15 @@
         <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>123</v>
@@ -33255,10 +33258,10 @@
         <v>46</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/BATRU/Data/P3_template.xlsx
+++ b/Projects/BATRU/Data/P3_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$521</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
@@ -40,6 +40,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$511</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
@@ -57,6 +59,8 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
@@ -74,6 +78,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$68</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
@@ -82,7 +88,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
@@ -91,6 +97,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$41</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
@@ -108,6 +116,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$61</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
@@ -125,6 +135,8 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -138,1180 +150,1180 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="392">
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>fixture</t>
-  </si>
-  <si>
-    <t># of shelves</t>
-  </si>
-  <si>
-    <t>store_attribute_3</t>
-  </si>
-  <si>
-    <t>section_number</t>
-  </si>
-  <si>
-    <t>section_name</t>
-  </si>
-  <si>
-    <t>section_limits</t>
-  </si>
-  <si>
-    <t>Above SAS zone?</t>
-  </si>
-  <si>
-    <t>start_shelf_from_top</t>
-  </si>
-  <si>
-    <t>end_shelf_from_top</t>
-  </si>
-  <si>
-    <t>start_shelf_from_bottom</t>
-  </si>
-  <si>
-    <t>end_shelf_from_bottom</t>
-  </si>
-  <si>
-    <t>start_sequence</t>
-  </si>
-  <si>
-    <t>end_sequence</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>GC_P_BWD Premium black 11x12</t>
-  </si>
-  <si>
-    <t>Asp. Premium +</t>
-  </si>
-  <si>
-    <t>23 - Rt Demi</t>
-  </si>
-  <si>
-    <t>R9C1:R9C5</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2 - Kent Nano Mix</t>
-  </si>
-  <si>
-    <t>R9C6:R9C9</t>
-  </si>
-  <si>
-    <t>3 - Vogue</t>
-  </si>
-  <si>
-    <t>R9C10:R9C12</t>
-  </si>
-  <si>
-    <t>4 - Rt Capsule</t>
-  </si>
-  <si>
-    <t>R8C1:R8C5</t>
-  </si>
-  <si>
-    <t>5 - Kent Nano</t>
-  </si>
-  <si>
-    <t>R8C6:R8C9</t>
-  </si>
-  <si>
-    <t>6 - Unique</t>
-  </si>
-  <si>
-    <t>R8C10:R8C12</t>
-  </si>
-  <si>
-    <t>7 - Royals KS</t>
-  </si>
-  <si>
-    <t>R7C1:R7C5</t>
-  </si>
-  <si>
-    <t>8 - Kent HD</t>
-  </si>
-  <si>
-    <t>R7C6:R7C9</t>
-  </si>
-  <si>
-    <t>9 - Yava Gold</t>
-  </si>
-  <si>
-    <t>R7C10:R7C12</t>
-  </si>
-  <si>
-    <t>10 - Royals demi</t>
-  </si>
-  <si>
-    <t>R6C1:R6C5</t>
-  </si>
-  <si>
-    <t>11 - Kent DL</t>
-  </si>
-  <si>
-    <t>R6C6:R6C9</t>
-  </si>
-  <si>
-    <t>12 - Yava Classic</t>
-  </si>
-  <si>
-    <t>R6C10:R6C12</t>
-  </si>
-  <si>
-    <t>13 - Rest</t>
-  </si>
-  <si>
-    <t>R5C1:R5C9</t>
-  </si>
-  <si>
-    <t>14 - Yava Original</t>
-  </si>
-  <si>
-    <t>R5C10:R5C12</t>
-  </si>
-  <si>
-    <t>VFM -</t>
-  </si>
-  <si>
-    <t>R9C5:R9C9</t>
-  </si>
-  <si>
-    <t>R9C1:R9C4</t>
-  </si>
-  <si>
-    <t>R8C5:R8C9</t>
-  </si>
-  <si>
-    <t>R8C1:R8C4</t>
-  </si>
-  <si>
-    <t>R7C5:R7C9</t>
-  </si>
-  <si>
-    <t>R7C1:R7C4</t>
-  </si>
-  <si>
-    <t>R6C5:R6C9</t>
-  </si>
-  <si>
-    <t>R6C1:R6C4</t>
-  </si>
-  <si>
-    <t>GC_P_BWD SS Door Slim 11*12</t>
-  </si>
-  <si>
-    <t>R5C1:R5C5</t>
-  </si>
-  <si>
-    <t>R5C6:R5C9</t>
-  </si>
-  <si>
-    <t>R2C1:R2C9</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>R2C10:R2C12</t>
-  </si>
-  <si>
-    <t>R5C5:R5C9</t>
-  </si>
-  <si>
-    <t>R5C1:R5C4</t>
-  </si>
-  <si>
-    <t>GC_P_BWD A2 2011</t>
-  </si>
-  <si>
-    <t>22 - Rt Demi</t>
-  </si>
-  <si>
-    <t>R9C5:R9C7</t>
-  </si>
-  <si>
-    <t>R9C8:R9C10</t>
-  </si>
-  <si>
-    <t>R8C5:R8C7</t>
-  </si>
-  <si>
-    <t>R8C8:R8C10</t>
-  </si>
-  <si>
-    <t>R7C5:R7C7</t>
-  </si>
-  <si>
-    <t>R7C8:R7C10</t>
-  </si>
-  <si>
-    <t>R6C5:R6C7</t>
-  </si>
-  <si>
-    <t>R6C8:R6C10</t>
-  </si>
-  <si>
-    <t>R5C1:R5C7</t>
-  </si>
-  <si>
-    <t>R5C8:R5C10</t>
-  </si>
-  <si>
-    <t>R9C4:R9C7</t>
-  </si>
-  <si>
-    <t>R9C1:R9C3</t>
-  </si>
-  <si>
-    <t>R8C4:R8C7</t>
-  </si>
-  <si>
-    <t>R8C1:R8C3</t>
-  </si>
-  <si>
-    <t>R7C4:R7C7</t>
-  </si>
-  <si>
-    <t>R7C1:R7C3</t>
-  </si>
-  <si>
-    <t>R6C4:R6C7</t>
-  </si>
-  <si>
-    <t>R6C1:R6C3</t>
-  </si>
-  <si>
-    <t>GC_P_BWD A2 2011 non SS</t>
-  </si>
-  <si>
-    <t>20 - Rt Other</t>
-  </si>
-  <si>
-    <t>21 - Kent HD</t>
-  </si>
-  <si>
-    <t>R5C5:R5C7</t>
-  </si>
-  <si>
-    <t>R4C1:R4C10</t>
-  </si>
-  <si>
-    <t>R5C4:R5C7</t>
-  </si>
-  <si>
-    <t>R5C1:R5C3</t>
-  </si>
-  <si>
-    <t>GC_P_BWD Premium black 11x15</t>
-  </si>
-  <si>
-    <t>1 - Rt Demi</t>
-  </si>
-  <si>
-    <t>R9C1:R9C7</t>
-  </si>
-  <si>
-    <t>R9C8:R9C12</t>
-  </si>
-  <si>
-    <t>R9C13:R9C15</t>
-  </si>
-  <si>
-    <t>R8C1:R8C7</t>
-  </si>
-  <si>
-    <t>R8C8:R8C12</t>
-  </si>
-  <si>
-    <t>R8C13:R8C15</t>
-  </si>
-  <si>
-    <t>R7C1:R7C7</t>
-  </si>
-  <si>
-    <t>R7C8:R7C12</t>
-  </si>
-  <si>
-    <t>R7C13:R7C15</t>
-  </si>
-  <si>
-    <t>R6C1:R6C7</t>
-  </si>
-  <si>
-    <t>R6C8:R6C12</t>
-  </si>
-  <si>
-    <t>R6C13:R6C15</t>
-  </si>
-  <si>
-    <t>R5C1:R5C12</t>
-  </si>
-  <si>
-    <t>R5C13:R5C15</t>
-  </si>
-  <si>
-    <t>R9C6:R9C12</t>
-  </si>
-  <si>
-    <t>R8C6:R8C12</t>
-  </si>
-  <si>
-    <t>R7C6:R7C12</t>
-  </si>
-  <si>
-    <t>R6C6:R6C12</t>
-  </si>
-  <si>
-    <t>GC_P_BWD Premium 9 x 12</t>
-  </si>
-  <si>
-    <t>R4C1:R4C9</t>
-  </si>
-  <si>
-    <t>R4C10:R4C12</t>
-  </si>
-  <si>
-    <t>GC_P_BWD Premium 9 x 15</t>
-  </si>
-  <si>
-    <t>R5C8:R5C12</t>
-  </si>
-  <si>
-    <t>R4C1:R4C12</t>
-  </si>
-  <si>
-    <t>R4C13:R4C15</t>
-  </si>
-  <si>
-    <t>R5C6:R5C12</t>
-  </si>
-  <si>
-    <t>GC_P_BWD SS Door Slim 11*15</t>
-  </si>
-  <si>
-    <t>R2C1:R2C12</t>
-  </si>
-  <si>
-    <t>R2C13:R2C15</t>
-  </si>
-  <si>
-    <t>GC_P_BWD SS Door Oval 11*15</t>
-  </si>
-  <si>
-    <t>GC_P_BWD SS Door Oval 11*12</t>
-  </si>
-  <si>
-    <t>GC_P_BWD SS Flaps 11*15</t>
-  </si>
-  <si>
-    <t>R1C1:R1C12</t>
-  </si>
-  <si>
-    <t>R1C13:R1C15</t>
-  </si>
-  <si>
-    <t>GC_P_BWD SS Flaps 11*12</t>
-  </si>
-  <si>
-    <t>R1C1:R1C9</t>
-  </si>
-  <si>
-    <t>R1C10:R1C12</t>
-  </si>
-  <si>
-    <t>R5C5:R5C10</t>
-  </si>
-  <si>
-    <t>GC_P_ DSP BWD Flaps 8*15</t>
-  </si>
-  <si>
-    <t>GC_P_ DSP BWD Flaps 8*12</t>
-  </si>
-  <si>
-    <t>GC_P_ DSP BWD Flaps 8*10</t>
-  </si>
-  <si>
-    <t>R4C1:R4C7</t>
-  </si>
-  <si>
-    <t>R4C8:R4C10</t>
-  </si>
-  <si>
-    <t>TEST_BWD SS 12*15 Local Elby</t>
-  </si>
-  <si>
-    <t>TEST_BWD SS 12*15 Local PVG</t>
-  </si>
-  <si>
-    <t>R3C6:R3C12</t>
-  </si>
-  <si>
-    <t>2 - Kent DL</t>
-  </si>
-  <si>
-    <t>R3C1:R3C5</t>
-  </si>
-  <si>
-    <t>R3C13:R3C15</t>
-  </si>
-  <si>
-    <t>R4C6:R4C12</t>
-  </si>
-  <si>
-    <t>R4C1:R4C5</t>
-  </si>
-  <si>
-    <t>7 - Royals Demi</t>
-  </si>
-  <si>
-    <t>10 - Royals KS</t>
-  </si>
-  <si>
-    <t>11 - Kent Other</t>
-  </si>
-  <si>
-    <t>GC_P_OHD Self-Service 3х20</t>
-  </si>
-  <si>
-    <t>15 - Kent</t>
-  </si>
-  <si>
-    <t>R3C1:R3C11</t>
-  </si>
-  <si>
-    <t>16 - Rothmans</t>
-  </si>
-  <si>
-    <t>R3C12:R3C20</t>
-  </si>
-  <si>
-    <t>17 - Yava</t>
-  </si>
-  <si>
-    <t>R2C1:R2C8</t>
-  </si>
-  <si>
-    <t>18 - Rest</t>
-  </si>
-  <si>
-    <t>R2C9:R2C15</t>
-  </si>
-  <si>
-    <t>19 - Royals</t>
-  </si>
-  <si>
-    <t>R2C16:R2C20</t>
-  </si>
-  <si>
-    <t>GC_P_OHD Self-Service 3х20 Flaps</t>
-  </si>
-  <si>
-    <t>GC_P_OHD PackMan 3х20</t>
-  </si>
-  <si>
-    <t>R2C19:R2C20</t>
-  </si>
-  <si>
-    <t>TEST_OHD SS 3*20 Local Elby</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>SKU ID</t>
-  </si>
-  <si>
-    <t>product_ean_code</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Index (Duplications priority)</t>
-  </si>
-  <si>
-    <t>Rothmans Demi Blue</t>
-  </si>
-  <si>
-    <t>1-1Z9QGHH</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Rothmans Nanokings</t>
-  </si>
-  <si>
-    <t>1-1ZZTLXA</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Rothmans Demi Silver</t>
-  </si>
-  <si>
-    <t>1-214F80L</t>
-  </si>
-  <si>
-    <t>Rothmans SS Click</t>
-  </si>
-  <si>
-    <t>1-1Y66O1C</t>
-  </si>
-  <si>
-    <t>Rothmans International</t>
-  </si>
-  <si>
-    <t>1-I3-293</t>
-  </si>
-  <si>
-    <t>Rothmans International PHL</t>
-  </si>
-  <si>
-    <t>Pos-000003</t>
-  </si>
-  <si>
-    <t>Rothmans SS Silver</t>
-  </si>
-  <si>
-    <t>1-1X7ZJW5</t>
-  </si>
-  <si>
-    <t>Kent Nano Mix Amber PHL</t>
-  </si>
-  <si>
-    <t>Pos-000002</t>
-  </si>
-  <si>
-    <t>Kent Nano Mix Amber PHL - Left</t>
-  </si>
-  <si>
-    <t>Pos-000004</t>
-  </si>
-  <si>
-    <t>Kent Nano Mix Amber PHL - Right</t>
-  </si>
-  <si>
-    <t>Pos-000005</t>
-  </si>
-  <si>
-    <t>Kent Nano Mix Amber</t>
-  </si>
-  <si>
-    <t>1-26BSJ6T</t>
-  </si>
-  <si>
-    <t>Kent Nano Mix</t>
-  </si>
-  <si>
-    <t>1-244ZTNM</t>
-  </si>
-  <si>
-    <t>Kent Neostiks Bright Tobacco</t>
-  </si>
-  <si>
-    <t>1-24YB1M1</t>
-  </si>
-  <si>
-    <t>Kent Neostiks Citric Mix</t>
-  </si>
-  <si>
-    <t>1-24YB1MB</t>
-  </si>
-  <si>
-    <t>Kent Neostiks Fresh Mix</t>
-  </si>
-  <si>
-    <t>1-24YB1ML</t>
-  </si>
-  <si>
-    <t>Vogue Bleue</t>
-  </si>
-  <si>
-    <t>1-I3-302</t>
-  </si>
-  <si>
-    <t>Vogue Lilas</t>
-  </si>
-  <si>
-    <t>1-I3-304</t>
-  </si>
-  <si>
-    <t>Vogue Menthe</t>
-  </si>
-  <si>
-    <t>1-I3-303</t>
-  </si>
-  <si>
-    <t>Vogue Arome Diner en Ville</t>
-  </si>
-  <si>
-    <t>1-44LWV7</t>
-  </si>
-  <si>
-    <t>Rothmans Demi Click</t>
-  </si>
-  <si>
-    <t>1-223WA7H</t>
-  </si>
-  <si>
-    <t>Rothmans Mandarin</t>
-  </si>
-  <si>
-    <t>1-24U8991</t>
-  </si>
-  <si>
-    <t>Rothmans Demi Aero Blue</t>
-  </si>
-  <si>
-    <t>1-23RD3HA</t>
-  </si>
-  <si>
-    <t>Kent Nanotek 2.0 Silver</t>
-  </si>
-  <si>
-    <t>1-EOGSAU</t>
-  </si>
-  <si>
-    <t>Kent Nanotek 2.0 White</t>
-  </si>
-  <si>
-    <t>1-EOGSB7</t>
-  </si>
-  <si>
-    <t>Kent iSwitch</t>
-  </si>
-  <si>
-    <t>1-1USSGBP</t>
-  </si>
-  <si>
-    <t>Kent Nanotek 2.0 Blue</t>
-  </si>
-  <si>
-    <t>Kent Hdi Blue</t>
-  </si>
-  <si>
-    <t>1-244ZTMS</t>
-  </si>
-  <si>
-    <t>Kent HDs Blue</t>
-  </si>
-  <si>
-    <t>1-1X73453</t>
-  </si>
-  <si>
-    <t>Vogue Unique</t>
-  </si>
-  <si>
-    <t>1-25TEECZ</t>
-  </si>
-  <si>
-    <t>Vogue Unique PHL</t>
-  </si>
-  <si>
-    <t>pos-000001</t>
-  </si>
-  <si>
-    <t>Rothmans KS Blue</t>
-  </si>
-  <si>
-    <t>1-1Y66O2P</t>
-  </si>
-  <si>
-    <t>Rothmans KS Silver</t>
-  </si>
-  <si>
-    <t>1-1Y66O2Z</t>
-  </si>
-  <si>
-    <t>Royals KS Red</t>
-  </si>
-  <si>
-    <t>1-23J1KKF</t>
-  </si>
-  <si>
-    <t>Royals KS Blue</t>
-  </si>
-  <si>
-    <t>1-22ZS7MO</t>
-  </si>
-  <si>
-    <t>Kent HD Futura</t>
-  </si>
-  <si>
-    <t>1-I3-309</t>
-  </si>
-  <si>
-    <t>Kent HD Neo</t>
-  </si>
-  <si>
-    <t>1-I3-310</t>
-  </si>
-  <si>
-    <t>Kent HD Infina</t>
-  </si>
-  <si>
-    <t>1-I3-273</t>
-  </si>
-  <si>
-    <t>Yava Gold Turbo Demi</t>
-  </si>
-  <si>
-    <t>1-244ZTLB</t>
-  </si>
-  <si>
-    <t>Yava Gold Old</t>
-  </si>
-  <si>
-    <t>1-1XA2D13</t>
-  </si>
-  <si>
-    <t>Yava Gold Classic</t>
-  </si>
-  <si>
-    <t>1-I3-397</t>
-  </si>
-  <si>
-    <t>Yava Turbo</t>
-  </si>
-  <si>
-    <t>Yava SC Classic</t>
-  </si>
-  <si>
-    <t>1-I3-322</t>
-  </si>
-  <si>
-    <t>Yava SC Original</t>
-  </si>
-  <si>
-    <t>1-I3-319</t>
-  </si>
-  <si>
-    <t>Yava Gold Classic 25 Stx</t>
-  </si>
-  <si>
-    <t>1-23366VZ</t>
-  </si>
-  <si>
-    <t>Yava HL Classic 25 sticks</t>
-  </si>
-  <si>
-    <t>1-23366WD</t>
-  </si>
-  <si>
-    <t>Royals Demi</t>
-  </si>
-  <si>
-    <t>1-22ZMXKP</t>
-  </si>
-  <si>
-    <t>Royals Berry</t>
-  </si>
-  <si>
-    <t>1-24U899V</t>
-  </si>
-  <si>
-    <t>Royals Nanokings</t>
-  </si>
-  <si>
-    <t>1-24AQHX3</t>
-  </si>
-  <si>
-    <t>Kent D-Mix</t>
-  </si>
-  <si>
-    <t>1-244ZTLX</t>
-  </si>
-  <si>
-    <t>Kent D-Series</t>
-  </si>
-  <si>
-    <t>Kent D-Mix Plus</t>
-  </si>
-  <si>
-    <t>1-249YDT8</t>
-  </si>
-  <si>
-    <t>Yava White Gold Classic</t>
-  </si>
-  <si>
-    <t>1-216K8LY</t>
-  </si>
-  <si>
-    <t>Yava Gold Classic 100s</t>
-  </si>
-  <si>
-    <t>1-23J1KKP</t>
-  </si>
-  <si>
-    <t>Dallas Blue</t>
-  </si>
-  <si>
-    <t>1-I3-265</t>
-  </si>
-  <si>
-    <t>Dallas Red</t>
-  </si>
-  <si>
-    <t>Dunhill Fine Cut Blond Bland</t>
-  </si>
-  <si>
-    <t>1-VVEYS8</t>
-  </si>
-  <si>
-    <t>Dunhill Fine Cut Dark Blue</t>
-  </si>
-  <si>
-    <t>1-K2JYMZ</t>
-  </si>
-  <si>
-    <t>Dunhill FC Master Blend Blue</t>
-  </si>
-  <si>
-    <t>1-K2JYMS</t>
-  </si>
-  <si>
-    <t>Dunhill FC Swiss Blend</t>
-  </si>
-  <si>
-    <t>1-K2JYMK</t>
-  </si>
-  <si>
-    <t>Dunhill KS MB Blue</t>
-  </si>
-  <si>
-    <t>1-I3-271</t>
-  </si>
-  <si>
-    <t>Dunhill KS MB Gold</t>
-  </si>
-  <si>
-    <t>1-I3-272</t>
-  </si>
-  <si>
-    <t>Dunhill KS MB Red</t>
-  </si>
-  <si>
-    <t>1-I3-266</t>
-  </si>
-  <si>
-    <t>Silk</t>
-  </si>
-  <si>
-    <t>1-20JIR06</t>
-  </si>
-  <si>
-    <t>Viceroy Blue</t>
-  </si>
-  <si>
-    <t>1-1D6LZW</t>
-  </si>
-  <si>
-    <t>Viceroy Red</t>
-  </si>
-  <si>
-    <t>1-1D6LZP</t>
-  </si>
-  <si>
-    <t>Lucky Strike Premium Blue</t>
-  </si>
-  <si>
-    <t>1-1Z4HHNK</t>
-  </si>
-  <si>
-    <t>Lucky Strike Premium Silver</t>
-  </si>
-  <si>
-    <t>1-1Z4IKCD</t>
-  </si>
-  <si>
-    <t>Pall Mall KS Blue</t>
-  </si>
-  <si>
-    <t>1-111PWZP</t>
-  </si>
-  <si>
-    <t>Pall Mall KS Red</t>
-  </si>
-  <si>
-    <t>1-111PWZU</t>
-  </si>
-  <si>
-    <t>Pall Mall Nanokings Blue</t>
-  </si>
-  <si>
-    <t>1-152HINK</t>
-  </si>
-  <si>
-    <t>Pall Mall SS Blue</t>
-  </si>
-  <si>
-    <t>1-I3-285</t>
-  </si>
-  <si>
-    <t>Pall Mall SS Menthol</t>
-  </si>
-  <si>
-    <t>1-1QSYU5</t>
-  </si>
-  <si>
-    <t>Alliance Classic</t>
-  </si>
-  <si>
-    <t>Alliance Demi</t>
-  </si>
-  <si>
-    <t>1-1ZXH2W6</t>
-  </si>
-  <si>
-    <t>Alliance Modern</t>
-  </si>
-  <si>
-    <t>Alliance Modern Slims</t>
-  </si>
-  <si>
-    <t>1-1X2NZWZ</t>
-  </si>
-  <si>
-    <t>Alliance Original</t>
-  </si>
-  <si>
-    <t>Alliance Original Compact</t>
-  </si>
-  <si>
-    <t>Alliance Original Slims</t>
-  </si>
-  <si>
-    <t>1-1X2NZWU</t>
-  </si>
-  <si>
-    <t>Alliance Classic 25</t>
-  </si>
-  <si>
-    <t>1-21VR1SF</t>
-  </si>
-  <si>
-    <t>Alliance Original 25</t>
-  </si>
-  <si>
-    <t>1-21VR1S1</t>
-  </si>
-  <si>
-    <t>Priluki Osoblivi Classic</t>
-  </si>
-  <si>
-    <t>1-20XVOZP</t>
-  </si>
-  <si>
-    <t>Priluki Osoblivi Sophisticated</t>
-  </si>
-  <si>
-    <t>1-20XVOZ3</t>
-  </si>
-  <si>
-    <t>Alliance Premium</t>
-  </si>
-  <si>
-    <t>Yava Gold Original</t>
-  </si>
-  <si>
-    <t>1-I3-398</t>
-  </si>
-  <si>
-    <t>Yava Original</t>
-  </si>
-  <si>
-    <t>1-I3-320</t>
-  </si>
-  <si>
-    <t>Yava White Gold Original</t>
-  </si>
-  <si>
-    <t>1-216K8MJ</t>
-  </si>
-  <si>
-    <t>Kent D-mix plus</t>
-  </si>
-  <si>
-    <t>Yava Gold Turbo</t>
-  </si>
-  <si>
-    <t>Dunhill FC Blond Blend</t>
-  </si>
-  <si>
-    <t>Dunhill FC Master Blend</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Kent D-mix</t>
-  </si>
-  <si>
-    <t>Dunhill Fine Cut Swiss Bland</t>
-  </si>
-  <si>
-    <t>Dunhill Fine Cut Sky Blue</t>
-  </si>
-  <si>
-    <t>Dunhill Master Blend Red</t>
-  </si>
-  <si>
-    <t>Dunhill Master Blend Blue</t>
-  </si>
-  <si>
-    <t>Dunhill Master Blend Gold</t>
-  </si>
-  <si>
-    <t>start_shelf</t>
-  </si>
-  <si>
-    <t>end_shelf</t>
-  </si>
-  <si>
-    <t>product_english_name</t>
-  </si>
-  <si>
-    <t>Kent Black</t>
-  </si>
-  <si>
-    <t>Kent HDi Blue</t>
-  </si>
-  <si>
-    <t>1-1YT2JWW</t>
-  </si>
-  <si>
-    <t>1-148QT8L</t>
-  </si>
-  <si>
-    <t>Rothmans SS Blue</t>
-  </si>
-  <si>
-    <t>1-23Q4OGL</t>
-  </si>
-  <si>
-    <t>Yava Classic</t>
-  </si>
-  <si>
-    <t>1-I3-323</t>
-  </si>
-  <si>
-    <t>1-1WXI3F6</t>
-  </si>
-  <si>
-    <t>Yava Gold Ultra Turbo</t>
-  </si>
-  <si>
-    <t>1-1X9GDMR</t>
-  </si>
-  <si>
-    <t>NOT NEEDED</t>
-  </si>
-  <si>
-    <t>Yava Modern</t>
-  </si>
-  <si>
-    <t>1-I3-321</t>
-  </si>
-  <si>
-    <t>1-I3-264</t>
-  </si>
-  <si>
-    <t>1-I3-259</t>
-  </si>
-  <si>
-    <t>1-I3-261</t>
-  </si>
-  <si>
-    <t>1-I3-260</t>
-  </si>
-  <si>
-    <t>1-1XAVBUB</t>
-  </si>
-  <si>
-    <t>1-1ZBSHBB</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>attribute_3</t>
-  </si>
-  <si>
-    <t>display_name</t>
-  </si>
-  <si>
-    <t>Names of template in SR</t>
-  </si>
-  <si>
-    <t>GC_A_TN_SAS Frame - Kent_Amber</t>
-  </si>
-  <si>
-    <t>GC_A_TN_SAS Frame - Kent_Amber (1).jpg, GC_A_TN_SAS Frame - Kent_Amber (10).jpg, GC_A_TN_SAS Frame - Kent_Amber (2).jpg, GC_A_TN_SAS Frame - Kent_Amber (3).jpg, GC_A_TN_SAS Frame - Kent_Amber (4).jpg, GC_A_TN_SAS Frame - Kent_Amber (5).jpg, GC_A_TN_SAS Frame - Kent_Amber (6).jpg, GC_A_TN_SAS Frame - Kent_Amber (7).jpg, GC_A_TN_SAS Frame - Kent_Amber (8).jpg, GC_A_TN_SAS Frame - Kent_Amber (9).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - Kent_Amber.jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_SAS Frame - RTM_International</t>
-  </si>
-  <si>
-    <t>GC_A_TN_SAS Frame - RTM_International (1).jpg, GC_A_TN_SAS Frame - RTM_International (2).jpg, GC_A_TN_SAS Frame - RTM_International (3).jpg, GC_A_TN_SAS Frame - RTM_International (4).jpg, GC_A_TN_SAS Frame - RTM_International (5).jpg, GC_A_TN_SAS Frame - RTM_International (6).jpg, GC_A_TN_SAS Frame - RTM_International (7).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_BackGround_for_BWD - Kent_Amber</t>
-  </si>
-  <si>
-    <t>GC_A_TN_BackGround_for_BWD - Kent_Amber (1).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (2).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (3).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (4).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (5).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - Kent_Amber</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - Kent_Amber (1).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_BackGround_for_BWD - RTM_International</t>
-  </si>
-  <si>
-    <t>GC_A_TN_BackGround_for_BWD - RTM_International (1).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (2).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (3).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (4).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (5).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - RTM_International</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD - RTM_International (1).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (2).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (3).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (4).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - RTM_International</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Shelf Strip for SAS - RTM_International (1).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (2).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (3).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (4).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (5).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (6).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (7).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (8).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (1).jpg, GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (2).jpg</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - RTM_International</t>
-  </si>
-  <si>
-    <t>GC_A_TN_Carboard SAS for BWD gor. - RTM_International.jpg</t>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_attribute_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above SAS zone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_shelf_from_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_shelf_from_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_shelf_from_bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_shelf_from_bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD Premium black 11x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asp. Premium +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 - Rt Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C1:R9C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Kent Nano Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C6:R9C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Vogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C10:R9C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - Rt Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C1:R8C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - Kent Nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C6:R8C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C10:R8C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Royals KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C1:R7C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - Kent HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C6:R7C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - Yava Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C10:R7C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Royals demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C1:R6C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Kent DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C6:R6C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - Yava Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C10:R6C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C1:R5C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - Yava Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C10:R5C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VFM -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C5:R9C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C1:R9C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C5:R8C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C1:R8C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C5:R7C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C1:R7C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C5:R6C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C1:R6C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD SS Door Slim 11*12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C1:R5C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C6:R5C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C1:R2C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C10:R2C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C5:R5C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C1:R5C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD A2 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 - Rt Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C5:R9C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C8:R9C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C5:R8C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C8:R8C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C5:R7C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C8:R7C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C5:R6C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C8:R6C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C1:R5C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C8:R5C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C4:R9C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C1:R9C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C4:R8C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C1:R8C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C4:R7C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C1:R7C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C4:R6C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C1:R6C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD A2 2011 non SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 - Rt Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 - Kent HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C5:R5C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C1:R4C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C4:R5C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C1:R5C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD Premium black 11x15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Rt Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C1:R9C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C8:R9C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C13:R9C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C1:R8C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C8:R8C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C13:R8C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C1:R7C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C8:R7C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C13:R7C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C1:R6C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C8:R6C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C13:R6C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C1:R5C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C13:R5C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9C6:R9C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8C6:R8C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7C6:R7C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6C6:R6C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD Premium 9 x 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C1:R4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C10:R4C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD Premium 9 x 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C8:R5C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C1:R4C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C13:R4C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C6:R5C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD SS Door Slim 11*15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C1:R2C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C13:R2C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD SS Door Oval 11*15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD SS Door Oval 11*12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD SS Flaps 11*15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1C1:R1C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1C13:R1C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_BWD SS Flaps 11*12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1C1:R1C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1C10:R1C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5C5:R5C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_ DSP BWD Flaps 8*10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C1:R4C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C8:R4C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_BWD SS 12*15 Local Elby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_BWD SS 12*15 Local PVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3C6:R3C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - Kent DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3C1:R3C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3C13:R3C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C6:R4C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4C1:R4C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - Royals Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - Royals KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - Kent Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_OHD Self-Service 3х20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - Kent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3C1:R3C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - Rothmans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3C12:R3C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - Yava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C1:R2C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C9:R2C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - Royals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C16:R2C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_OHD Self-Service 3х20 Flaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_P_OHD PackMan 3х20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2C19:R2C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_OHD SS 3*20 Local Elby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_ean_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index (Duplications priority)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans Demi Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1Z9QGHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans Nanokings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1ZZTLXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans Demi Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-214F80L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans SS Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1Y66O1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans International PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos-000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans SS Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1X7ZJW5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nano Mix Amber PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos-000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nano Mix Amber PHL - Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos-000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nano Mix Amber PHL - Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos-000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nano Mix Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-26BSJ6T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nano Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-244ZTNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Neostiks Bright Tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24YB1M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Neostiks Citric Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24YB1MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Neostiks Fresh Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24YB1ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogue Bleue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogue Lilas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogue Menthe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogue Arome Diner en Ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-44LWV7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans Demi Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-223WA7H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24U8991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans Demi Aero Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23RD3HA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nanotek 2.0 Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-EOGSAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nanotek 2.0 White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-EOGSB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent iSwitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1USSGBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Nanotek 2.0 Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Hdi Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-244ZTMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent HDs Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1X73453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogue Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-25TEECZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogue Unique PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pos-000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans KS Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1Y66O2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans KS Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1Y66O2Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royals KS Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23J1KKF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royals KS Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-22ZS7MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent HD Futura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent HD Neo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent HD Infina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Turbo Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-244ZTLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1XA2D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Turbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava SC Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava SC Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Classic 25 Stx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23366VZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava HL Classic 25 sticks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23366WD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royals Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-22ZMXKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royals Berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24U899V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royals Nanokings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-24AQHX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent D-Mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-244ZTLX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent D-Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent D-Mix Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-249YDT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava White Gold Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-216K8LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Classic 100s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23J1KKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallas Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Fine Cut Blond Bland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-VVEYS8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Fine Cut Dark Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-K2JYMZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill FC Master Blend Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-K2JYMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill FC Swiss Blend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-K2JYMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill KS MB Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill KS MB Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill KS MB Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-20JIR06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viceroy Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1D6LZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viceroy Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1D6LZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky Strike Premium Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1Z4HHNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky Strike Premium Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1Z4IKCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pall Mall KS Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-111PWZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pall Mall KS Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-111PWZU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pall Mall Nanokings Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-152HINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pall Mall SS Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pall Mall SS Menthol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1QSYU5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Demi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1ZXH2W6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Modern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Modern Slims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1X2NZWZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Original Compact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Original Slims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1X2NZWU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Classic 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-21VR1SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Original 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-21VR1S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priluki Osoblivi Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-20XVOZP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priluki Osoblivi Sophisticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-20XVOZ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava White Gold Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-216K8MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent D-mix plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Turbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill FC Blond Blend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill FC Master Blend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent D-mix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Fine Cut Swiss Bland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Fine Cut Sky Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Master Blend Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Master Blend Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunhill Master Blend Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_english_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kent HDi Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1YT2JWW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-148QT8L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rothmans SS Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-23Q4OGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Classic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1WXI3F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Gold Ultra Turbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1X9GDMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NEEDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yava Modern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-I3-260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1XAVBUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1ZBSHBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names of template in SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_SAS Frame - Kent_Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_SAS Frame - Kent_Amber (1).jpg, GC_A_TN_SAS Frame - Kent_Amber (10).jpg, GC_A_TN_SAS Frame - Kent_Amber (2).jpg, GC_A_TN_SAS Frame - Kent_Amber (3).jpg, GC_A_TN_SAS Frame - Kent_Amber (4).jpg, GC_A_TN_SAS Frame - Kent_Amber (5).jpg, GC_A_TN_SAS Frame - Kent_Amber (6).jpg, GC_A_TN_SAS Frame - Kent_Amber (7).jpg, GC_A_TN_SAS Frame - Kent_Amber (8).jpg, GC_A_TN_SAS Frame - Kent_Amber (9).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Kent_Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - Kent_Amber.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_SAS Frame - RTM_International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_SAS Frame - RTM_International (1).jpg, GC_A_TN_SAS Frame - RTM_International (2).jpg, GC_A_TN_SAS Frame - RTM_International (3).jpg, GC_A_TN_SAS Frame - RTM_International (4).jpg, GC_A_TN_SAS Frame - RTM_International (5).jpg, GC_A_TN_SAS Frame - RTM_International (6).jpg, GC_A_TN_SAS Frame - RTM_International (7).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_BackGround_for_BWD - Kent_Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_BackGround_for_BWD - Kent_Amber (1).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (2).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (3).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (4).jpg, GC_A_TN_BackGround_for_BWD - Kent_Amber (5).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - Kent_Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - Kent_Amber (1).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_BackGround_for_BWD - RTM_International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_BackGround_for_BWD - RTM_International (1).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (2).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (3).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (4).jpg, GC_A_TN_BackGround_for_BWD - RTM_International (5).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - RTM_International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD - RTM_International (1).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (2).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (3).jpg, GC_A_TN_Carboard SAS for BWD - RTM_International (4).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - RTM_International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Shelf Strip for SAS - RTM_International (1).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (2).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (3).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (4).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (5).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (6).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (7).jpg, GC_A_TN_Shelf Strip for SAS - RTM_International (8).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (1).jpg, GC_A_TN_Carboard SAS for BWD gor. - Kent_Amber (2).jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - RTM_International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC_A_TN_Carboard SAS for BWD gor. - RTM_International.jpg</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1331,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
@@ -1648,16 +1660,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1674,6 +1682,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1799,9 +1811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1814,8 +1826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31178520" y="1440"/>
-          <a:ext cx="2603880" cy="171000"/>
+          <a:off x="31617000" y="1440"/>
+          <a:ext cx="2602800" cy="170280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,9 +1848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>777600</xdr:colOff>
+      <xdr:colOff>776880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1851,8 +1863,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30646800" y="18000"/>
-          <a:ext cx="4687200" cy="100440"/>
+          <a:off x="31084920" y="18000"/>
+          <a:ext cx="4686480" cy="99720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,9 +1885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>730800</xdr:colOff>
+      <xdr:colOff>730080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1888,8 +1900,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33540840" y="3240"/>
-          <a:ext cx="2527560" cy="169200"/>
+          <a:off x="33978960" y="3240"/>
+          <a:ext cx="2526840" cy="168480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1931,27 +1943,27 @@
   </sheetPr>
   <dimension ref="A1:O521"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -24906,10 +24918,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -28483,16 +28495,16 @@
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.8582995951417"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
@@ -28512,12 +28524,12 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>339</v>
+        <v>182</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -28525,12 +28537,12 @@
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2</v>
@@ -28538,12 +28550,12 @@
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>3</v>
@@ -28551,12 +28563,12 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4</v>
@@ -28564,12 +28576,12 @@
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
@@ -28577,12 +28589,12 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>6</v>
@@ -28590,706 +28602,706 @@
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="11" t="n">
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="11" t="n">
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="11" t="n">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="11" t="n">
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="11" t="n">
+      <c r="A17" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="11" t="n">
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="11" t="n">
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="11" t="n">
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B29" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
+      <c r="C29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B30" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
+      <c r="C30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B31" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="C31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="11" t="n">
-        <v>23</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
+      <c r="C32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B36" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="C36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B38" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C28" s="11" t="n">
-        <v>27</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" s="11" t="n">
-        <v>28</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
+      <c r="C38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B39" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C31" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
+      <c r="C39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B40" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="11" t="n">
-        <v>31</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29" t="s">
+      <c r="C40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B41" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="11" t="n">
-        <v>32</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29" t="s">
+      <c r="C41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B42" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="s">
+      <c r="C42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B43" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C35" s="11" t="n">
-        <v>34</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29" t="s">
+      <c r="C43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B44" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+      <c r="C44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B45" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="s">
+      <c r="C45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" s="28"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B46" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="11" t="n">
-        <v>37</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29" t="s">
+      <c r="C46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B47" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="11" t="n">
-        <v>38</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
+      <c r="C47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B48" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="11" t="n">
-        <v>39</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29" t="s">
+      <c r="C48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B49" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29" t="s">
+      <c r="C49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B50" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="11" t="n">
-        <v>41</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29" t="s">
+      <c r="C50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B51" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="11" t="n">
-        <v>42</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
+      <c r="C51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B52" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C44" s="11" t="n">
-        <v>43</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>44</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="11" t="n">
-        <v>45</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>46</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="C48" s="11" t="n">
-        <v>47</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="21"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" s="11" t="n">
-        <v>48</v>
-      </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C50" s="11" t="n">
-        <v>49</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="C51" s="11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="11" t="n">
+      <c r="C52" s="1" t="n">
         <v>51</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="11" t="n">
+      <c r="A53" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C54" s="11" t="n">
+      <c r="A54" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" s="1" t="n">
         <v>53</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="11" t="n">
+    <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="11" t="n">
+    <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" s="1" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="11" t="n">
+      <c r="A57" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" s="1" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C58" s="11" t="n">
+    <row r="58" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="1" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C59" s="11" t="n">
+    <row r="59" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="1" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" s="11" t="n">
+    <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" s="1" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="61" s="21" customFormat="true" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="11" t="n">
+    <row r="61" s="21" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="1" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="11" t="n">
+    <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="1" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
         <v>231</v>
       </c>
@@ -29300,7 +29312,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
         <v>233</v>
       </c>
@@ -29311,7 +29323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
         <v>260</v>
       </c>
@@ -29322,7 +29334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
         <v>292</v>
       </c>
@@ -29333,7 +29345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
         <v>290</v>
       </c>
@@ -29344,7 +29356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
         <v>271</v>
       </c>
@@ -29355,7 +29367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
         <v>169</v>
       </c>
@@ -29520,11 +29532,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
@@ -29553,7 +29565,7 @@
       <c r="A2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="19" t="n">
@@ -29573,7 +29585,7 @@
       <c r="A3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="19" t="n">
@@ -29593,7 +29605,7 @@
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="19" t="n">
@@ -29613,7 +29625,7 @@
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="19" t="n">
@@ -29633,7 +29645,7 @@
       <c r="A6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="19" t="n">
@@ -29653,7 +29665,7 @@
       <c r="A7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="19" t="n">
@@ -29673,7 +29685,7 @@
       <c r="A8" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="19" t="n">
@@ -29688,266 +29700,266 @@
       <c r="F8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="BB8" s="32"/>
-      <c r="BF8" s="32"/>
-      <c r="BJ8" s="32"/>
-      <c r="BN8" s="32"/>
-      <c r="BR8" s="32"/>
-      <c r="BV8" s="32"/>
-      <c r="BZ8" s="32"/>
-      <c r="CD8" s="32"/>
-      <c r="CH8" s="32"/>
-      <c r="CL8" s="32"/>
-      <c r="CP8" s="32"/>
-      <c r="CT8" s="32"/>
-      <c r="CX8" s="32"/>
-      <c r="DB8" s="32"/>
-      <c r="DF8" s="32"/>
-      <c r="DJ8" s="32"/>
-      <c r="DN8" s="32"/>
-      <c r="DR8" s="32"/>
-      <c r="DV8" s="32"/>
-      <c r="DZ8" s="32"/>
-      <c r="ED8" s="32"/>
-      <c r="EH8" s="32"/>
-      <c r="EL8" s="32"/>
-      <c r="EP8" s="32"/>
-      <c r="ET8" s="32"/>
-      <c r="EX8" s="32"/>
-      <c r="FB8" s="32"/>
-      <c r="FF8" s="32"/>
-      <c r="FJ8" s="32"/>
-      <c r="FN8" s="32"/>
-      <c r="FR8" s="32"/>
-      <c r="FV8" s="32"/>
-      <c r="FZ8" s="32"/>
-      <c r="GD8" s="32"/>
-      <c r="GH8" s="32"/>
-      <c r="GL8" s="32"/>
-      <c r="GP8" s="32"/>
-      <c r="GT8" s="32"/>
-      <c r="GX8" s="32"/>
-      <c r="HB8" s="32"/>
-      <c r="HF8" s="32"/>
-      <c r="HJ8" s="32"/>
-      <c r="HN8" s="32"/>
-      <c r="HR8" s="32"/>
-      <c r="HV8" s="32"/>
-      <c r="HZ8" s="32"/>
-      <c r="ID8" s="32"/>
-      <c r="IH8" s="32"/>
-      <c r="IL8" s="32"/>
-      <c r="IP8" s="32"/>
-      <c r="IT8" s="32"/>
-      <c r="IX8" s="32"/>
-      <c r="JB8" s="32"/>
-      <c r="JF8" s="32"/>
-      <c r="JJ8" s="32"/>
-      <c r="JN8" s="32"/>
-      <c r="JR8" s="32"/>
-      <c r="JV8" s="32"/>
-      <c r="JZ8" s="32"/>
-      <c r="KD8" s="32"/>
-      <c r="KH8" s="32"/>
-      <c r="KL8" s="32"/>
-      <c r="KP8" s="32"/>
-      <c r="KT8" s="32"/>
-      <c r="KX8" s="32"/>
-      <c r="LB8" s="32"/>
-      <c r="LF8" s="32"/>
-      <c r="LJ8" s="32"/>
-      <c r="LN8" s="32"/>
-      <c r="LR8" s="32"/>
-      <c r="LV8" s="32"/>
-      <c r="LZ8" s="32"/>
-      <c r="MD8" s="32"/>
-      <c r="MH8" s="32"/>
-      <c r="ML8" s="32"/>
-      <c r="MP8" s="32"/>
-      <c r="MT8" s="32"/>
-      <c r="MX8" s="32"/>
-      <c r="NB8" s="32"/>
-      <c r="NF8" s="32"/>
-      <c r="NJ8" s="32"/>
-      <c r="NN8" s="32"/>
-      <c r="NR8" s="32"/>
-      <c r="NV8" s="32"/>
-      <c r="NZ8" s="32"/>
-      <c r="OD8" s="32"/>
-      <c r="OH8" s="32"/>
-      <c r="OL8" s="32"/>
-      <c r="OP8" s="32"/>
-      <c r="OT8" s="32"/>
-      <c r="OX8" s="32"/>
-      <c r="PB8" s="32"/>
-      <c r="PF8" s="32"/>
-      <c r="PJ8" s="32"/>
-      <c r="PN8" s="32"/>
-      <c r="PR8" s="32"/>
-      <c r="PV8" s="32"/>
-      <c r="PZ8" s="32"/>
-      <c r="QD8" s="32"/>
-      <c r="QH8" s="32"/>
-      <c r="QL8" s="32"/>
-      <c r="QP8" s="32"/>
-      <c r="QT8" s="32"/>
-      <c r="QX8" s="32"/>
-      <c r="RB8" s="32"/>
-      <c r="RF8" s="32"/>
-      <c r="RJ8" s="32"/>
-      <c r="RN8" s="32"/>
-      <c r="RR8" s="32"/>
-      <c r="RV8" s="32"/>
-      <c r="RZ8" s="32"/>
-      <c r="SD8" s="32"/>
-      <c r="SH8" s="32"/>
-      <c r="SL8" s="32"/>
-      <c r="SP8" s="32"/>
-      <c r="ST8" s="32"/>
-      <c r="SX8" s="32"/>
-      <c r="TB8" s="32"/>
-      <c r="TF8" s="32"/>
-      <c r="TJ8" s="32"/>
-      <c r="TN8" s="32"/>
-      <c r="TR8" s="32"/>
-      <c r="TV8" s="32"/>
-      <c r="TZ8" s="32"/>
-      <c r="UD8" s="32"/>
-      <c r="UH8" s="32"/>
-      <c r="UL8" s="32"/>
-      <c r="UP8" s="32"/>
-      <c r="UT8" s="32"/>
-      <c r="UX8" s="32"/>
-      <c r="VB8" s="32"/>
-      <c r="VF8" s="32"/>
-      <c r="VJ8" s="32"/>
-      <c r="VN8" s="32"/>
-      <c r="VR8" s="32"/>
-      <c r="VV8" s="32"/>
-      <c r="VZ8" s="32"/>
-      <c r="WD8" s="32"/>
-      <c r="WH8" s="32"/>
-      <c r="WL8" s="32"/>
-      <c r="WP8" s="32"/>
-      <c r="WT8" s="32"/>
-      <c r="WX8" s="32"/>
-      <c r="XB8" s="32"/>
-      <c r="XF8" s="32"/>
-      <c r="XJ8" s="32"/>
-      <c r="XN8" s="32"/>
-      <c r="XR8" s="32"/>
-      <c r="XV8" s="32"/>
-      <c r="XZ8" s="32"/>
-      <c r="YD8" s="32"/>
-      <c r="YH8" s="32"/>
-      <c r="YL8" s="32"/>
-      <c r="YP8" s="32"/>
-      <c r="YT8" s="32"/>
-      <c r="YX8" s="32"/>
-      <c r="ZB8" s="32"/>
-      <c r="ZF8" s="32"/>
-      <c r="ZJ8" s="32"/>
-      <c r="ZN8" s="32"/>
-      <c r="ZR8" s="32"/>
-      <c r="ZV8" s="32"/>
-      <c r="ZZ8" s="32"/>
-      <c r="AAD8" s="32"/>
-      <c r="AAH8" s="32"/>
-      <c r="AAL8" s="32"/>
-      <c r="AAP8" s="32"/>
-      <c r="AAT8" s="32"/>
-      <c r="AAX8" s="32"/>
-      <c r="ABB8" s="32"/>
-      <c r="ABF8" s="32"/>
-      <c r="ABJ8" s="32"/>
-      <c r="ABN8" s="32"/>
-      <c r="ABR8" s="32"/>
-      <c r="ABV8" s="32"/>
-      <c r="ABZ8" s="32"/>
-      <c r="ACD8" s="32"/>
-      <c r="ACH8" s="32"/>
-      <c r="ACL8" s="32"/>
-      <c r="ACP8" s="32"/>
-      <c r="ACT8" s="32"/>
-      <c r="ACX8" s="32"/>
-      <c r="ADB8" s="32"/>
-      <c r="ADF8" s="32"/>
-      <c r="ADJ8" s="32"/>
-      <c r="ADN8" s="32"/>
-      <c r="ADR8" s="32"/>
-      <c r="ADV8" s="32"/>
-      <c r="ADZ8" s="32"/>
-      <c r="AED8" s="32"/>
-      <c r="AEH8" s="32"/>
-      <c r="AEL8" s="32"/>
-      <c r="AEP8" s="32"/>
-      <c r="AET8" s="32"/>
-      <c r="AEX8" s="32"/>
-      <c r="AFB8" s="32"/>
-      <c r="AFF8" s="32"/>
-      <c r="AFJ8" s="32"/>
-      <c r="AFN8" s="32"/>
-      <c r="AFR8" s="32"/>
-      <c r="AFV8" s="32"/>
-      <c r="AFZ8" s="32"/>
-      <c r="AGD8" s="32"/>
-      <c r="AGH8" s="32"/>
-      <c r="AGL8" s="32"/>
-      <c r="AGP8" s="32"/>
-      <c r="AGT8" s="32"/>
-      <c r="AGX8" s="32"/>
-      <c r="AHB8" s="32"/>
-      <c r="AHF8" s="32"/>
-      <c r="AHJ8" s="32"/>
-      <c r="AHN8" s="32"/>
-      <c r="AHR8" s="32"/>
-      <c r="AHV8" s="32"/>
-      <c r="AHZ8" s="32"/>
-      <c r="AID8" s="32"/>
-      <c r="AIH8" s="32"/>
-      <c r="AIL8" s="32"/>
-      <c r="AIP8" s="32"/>
-      <c r="AIT8" s="32"/>
-      <c r="AIX8" s="32"/>
-      <c r="AJB8" s="32"/>
-      <c r="AJF8" s="32"/>
-      <c r="AJJ8" s="32"/>
-      <c r="AJN8" s="32"/>
-      <c r="AJR8" s="32"/>
-      <c r="AJV8" s="32"/>
-      <c r="AJZ8" s="32"/>
-      <c r="AKD8" s="32"/>
-      <c r="AKH8" s="32"/>
-      <c r="AKL8" s="32"/>
-      <c r="AKP8" s="32"/>
-      <c r="AKT8" s="32"/>
-      <c r="AKX8" s="32"/>
-      <c r="ALB8" s="32"/>
-      <c r="ALF8" s="32"/>
-      <c r="ALJ8" s="32"/>
-      <c r="ALN8" s="32"/>
-      <c r="ALR8" s="32"/>
-      <c r="ALV8" s="32"/>
-      <c r="ALZ8" s="32"/>
-      <c r="AMD8" s="32"/>
-      <c r="AMH8" s="32"/>
+      <c r="J8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AX8" s="31"/>
+      <c r="BB8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BJ8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CD8" s="31"/>
+      <c r="CH8" s="31"/>
+      <c r="CL8" s="31"/>
+      <c r="CP8" s="31"/>
+      <c r="CT8" s="31"/>
+      <c r="CX8" s="31"/>
+      <c r="DB8" s="31"/>
+      <c r="DF8" s="31"/>
+      <c r="DJ8" s="31"/>
+      <c r="DN8" s="31"/>
+      <c r="DR8" s="31"/>
+      <c r="DV8" s="31"/>
+      <c r="DZ8" s="31"/>
+      <c r="ED8" s="31"/>
+      <c r="EH8" s="31"/>
+      <c r="EL8" s="31"/>
+      <c r="EP8" s="31"/>
+      <c r="ET8" s="31"/>
+      <c r="EX8" s="31"/>
+      <c r="FB8" s="31"/>
+      <c r="FF8" s="31"/>
+      <c r="FJ8" s="31"/>
+      <c r="FN8" s="31"/>
+      <c r="FR8" s="31"/>
+      <c r="FV8" s="31"/>
+      <c r="FZ8" s="31"/>
+      <c r="GD8" s="31"/>
+      <c r="GH8" s="31"/>
+      <c r="GL8" s="31"/>
+      <c r="GP8" s="31"/>
+      <c r="GT8" s="31"/>
+      <c r="GX8" s="31"/>
+      <c r="HB8" s="31"/>
+      <c r="HF8" s="31"/>
+      <c r="HJ8" s="31"/>
+      <c r="HN8" s="31"/>
+      <c r="HR8" s="31"/>
+      <c r="HV8" s="31"/>
+      <c r="HZ8" s="31"/>
+      <c r="ID8" s="31"/>
+      <c r="IH8" s="31"/>
+      <c r="IL8" s="31"/>
+      <c r="IP8" s="31"/>
+      <c r="IT8" s="31"/>
+      <c r="IX8" s="31"/>
+      <c r="JB8" s="31"/>
+      <c r="JF8" s="31"/>
+      <c r="JJ8" s="31"/>
+      <c r="JN8" s="31"/>
+      <c r="JR8" s="31"/>
+      <c r="JV8" s="31"/>
+      <c r="JZ8" s="31"/>
+      <c r="KD8" s="31"/>
+      <c r="KH8" s="31"/>
+      <c r="KL8" s="31"/>
+      <c r="KP8" s="31"/>
+      <c r="KT8" s="31"/>
+      <c r="KX8" s="31"/>
+      <c r="LB8" s="31"/>
+      <c r="LF8" s="31"/>
+      <c r="LJ8" s="31"/>
+      <c r="LN8" s="31"/>
+      <c r="LR8" s="31"/>
+      <c r="LV8" s="31"/>
+      <c r="LZ8" s="31"/>
+      <c r="MD8" s="31"/>
+      <c r="MH8" s="31"/>
+      <c r="ML8" s="31"/>
+      <c r="MP8" s="31"/>
+      <c r="MT8" s="31"/>
+      <c r="MX8" s="31"/>
+      <c r="NB8" s="31"/>
+      <c r="NF8" s="31"/>
+      <c r="NJ8" s="31"/>
+      <c r="NN8" s="31"/>
+      <c r="NR8" s="31"/>
+      <c r="NV8" s="31"/>
+      <c r="NZ8" s="31"/>
+      <c r="OD8" s="31"/>
+      <c r="OH8" s="31"/>
+      <c r="OL8" s="31"/>
+      <c r="OP8" s="31"/>
+      <c r="OT8" s="31"/>
+      <c r="OX8" s="31"/>
+      <c r="PB8" s="31"/>
+      <c r="PF8" s="31"/>
+      <c r="PJ8" s="31"/>
+      <c r="PN8" s="31"/>
+      <c r="PR8" s="31"/>
+      <c r="PV8" s="31"/>
+      <c r="PZ8" s="31"/>
+      <c r="QD8" s="31"/>
+      <c r="QH8" s="31"/>
+      <c r="QL8" s="31"/>
+      <c r="QP8" s="31"/>
+      <c r="QT8" s="31"/>
+      <c r="QX8" s="31"/>
+      <c r="RB8" s="31"/>
+      <c r="RF8" s="31"/>
+      <c r="RJ8" s="31"/>
+      <c r="RN8" s="31"/>
+      <c r="RR8" s="31"/>
+      <c r="RV8" s="31"/>
+      <c r="RZ8" s="31"/>
+      <c r="SD8" s="31"/>
+      <c r="SH8" s="31"/>
+      <c r="SL8" s="31"/>
+      <c r="SP8" s="31"/>
+      <c r="ST8" s="31"/>
+      <c r="SX8" s="31"/>
+      <c r="TB8" s="31"/>
+      <c r="TF8" s="31"/>
+      <c r="TJ8" s="31"/>
+      <c r="TN8" s="31"/>
+      <c r="TR8" s="31"/>
+      <c r="TV8" s="31"/>
+      <c r="TZ8" s="31"/>
+      <c r="UD8" s="31"/>
+      <c r="UH8" s="31"/>
+      <c r="UL8" s="31"/>
+      <c r="UP8" s="31"/>
+      <c r="UT8" s="31"/>
+      <c r="UX8" s="31"/>
+      <c r="VB8" s="31"/>
+      <c r="VF8" s="31"/>
+      <c r="VJ8" s="31"/>
+      <c r="VN8" s="31"/>
+      <c r="VR8" s="31"/>
+      <c r="VV8" s="31"/>
+      <c r="VZ8" s="31"/>
+      <c r="WD8" s="31"/>
+      <c r="WH8" s="31"/>
+      <c r="WL8" s="31"/>
+      <c r="WP8" s="31"/>
+      <c r="WT8" s="31"/>
+      <c r="WX8" s="31"/>
+      <c r="XB8" s="31"/>
+      <c r="XF8" s="31"/>
+      <c r="XJ8" s="31"/>
+      <c r="XN8" s="31"/>
+      <c r="XR8" s="31"/>
+      <c r="XV8" s="31"/>
+      <c r="XZ8" s="31"/>
+      <c r="YD8" s="31"/>
+      <c r="YH8" s="31"/>
+      <c r="YL8" s="31"/>
+      <c r="YP8" s="31"/>
+      <c r="YT8" s="31"/>
+      <c r="YX8" s="31"/>
+      <c r="ZB8" s="31"/>
+      <c r="ZF8" s="31"/>
+      <c r="ZJ8" s="31"/>
+      <c r="ZN8" s="31"/>
+      <c r="ZR8" s="31"/>
+      <c r="ZV8" s="31"/>
+      <c r="ZZ8" s="31"/>
+      <c r="AAD8" s="31"/>
+      <c r="AAH8" s="31"/>
+      <c r="AAL8" s="31"/>
+      <c r="AAP8" s="31"/>
+      <c r="AAT8" s="31"/>
+      <c r="AAX8" s="31"/>
+      <c r="ABB8" s="31"/>
+      <c r="ABF8" s="31"/>
+      <c r="ABJ8" s="31"/>
+      <c r="ABN8" s="31"/>
+      <c r="ABR8" s="31"/>
+      <c r="ABV8" s="31"/>
+      <c r="ABZ8" s="31"/>
+      <c r="ACD8" s="31"/>
+      <c r="ACH8" s="31"/>
+      <c r="ACL8" s="31"/>
+      <c r="ACP8" s="31"/>
+      <c r="ACT8" s="31"/>
+      <c r="ACX8" s="31"/>
+      <c r="ADB8" s="31"/>
+      <c r="ADF8" s="31"/>
+      <c r="ADJ8" s="31"/>
+      <c r="ADN8" s="31"/>
+      <c r="ADR8" s="31"/>
+      <c r="ADV8" s="31"/>
+      <c r="ADZ8" s="31"/>
+      <c r="AED8" s="31"/>
+      <c r="AEH8" s="31"/>
+      <c r="AEL8" s="31"/>
+      <c r="AEP8" s="31"/>
+      <c r="AET8" s="31"/>
+      <c r="AEX8" s="31"/>
+      <c r="AFB8" s="31"/>
+      <c r="AFF8" s="31"/>
+      <c r="AFJ8" s="31"/>
+      <c r="AFN8" s="31"/>
+      <c r="AFR8" s="31"/>
+      <c r="AFV8" s="31"/>
+      <c r="AFZ8" s="31"/>
+      <c r="AGD8" s="31"/>
+      <c r="AGH8" s="31"/>
+      <c r="AGL8" s="31"/>
+      <c r="AGP8" s="31"/>
+      <c r="AGT8" s="31"/>
+      <c r="AGX8" s="31"/>
+      <c r="AHB8" s="31"/>
+      <c r="AHF8" s="31"/>
+      <c r="AHJ8" s="31"/>
+      <c r="AHN8" s="31"/>
+      <c r="AHR8" s="31"/>
+      <c r="AHV8" s="31"/>
+      <c r="AHZ8" s="31"/>
+      <c r="AID8" s="31"/>
+      <c r="AIH8" s="31"/>
+      <c r="AIL8" s="31"/>
+      <c r="AIP8" s="31"/>
+      <c r="AIT8" s="31"/>
+      <c r="AIX8" s="31"/>
+      <c r="AJB8" s="31"/>
+      <c r="AJF8" s="31"/>
+      <c r="AJJ8" s="31"/>
+      <c r="AJN8" s="31"/>
+      <c r="AJR8" s="31"/>
+      <c r="AJV8" s="31"/>
+      <c r="AJZ8" s="31"/>
+      <c r="AKD8" s="31"/>
+      <c r="AKH8" s="31"/>
+      <c r="AKL8" s="31"/>
+      <c r="AKP8" s="31"/>
+      <c r="AKT8" s="31"/>
+      <c r="AKX8" s="31"/>
+      <c r="ALB8" s="31"/>
+      <c r="ALF8" s="31"/>
+      <c r="ALJ8" s="31"/>
+      <c r="ALN8" s="31"/>
+      <c r="ALR8" s="31"/>
+      <c r="ALV8" s="31"/>
+      <c r="ALZ8" s="31"/>
+      <c r="AMD8" s="31"/>
+      <c r="AMH8" s="31"/>
     </row>
     <row r="9" s="21" customFormat="true" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="19" t="n">
@@ -29962,266 +29974,266 @@
       <c r="F9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BN9" s="32"/>
-      <c r="BR9" s="32"/>
-      <c r="BV9" s="32"/>
-      <c r="BZ9" s="32"/>
-      <c r="CD9" s="32"/>
-      <c r="CH9" s="32"/>
-      <c r="CL9" s="32"/>
-      <c r="CP9" s="32"/>
-      <c r="CT9" s="32"/>
-      <c r="CX9" s="32"/>
-      <c r="DB9" s="32"/>
-      <c r="DF9" s="32"/>
-      <c r="DJ9" s="32"/>
-      <c r="DN9" s="32"/>
-      <c r="DR9" s="32"/>
-      <c r="DV9" s="32"/>
-      <c r="DZ9" s="32"/>
-      <c r="ED9" s="32"/>
-      <c r="EH9" s="32"/>
-      <c r="EL9" s="32"/>
-      <c r="EP9" s="32"/>
-      <c r="ET9" s="32"/>
-      <c r="EX9" s="32"/>
-      <c r="FB9" s="32"/>
-      <c r="FF9" s="32"/>
-      <c r="FJ9" s="32"/>
-      <c r="FN9" s="32"/>
-      <c r="FR9" s="32"/>
-      <c r="FV9" s="32"/>
-      <c r="FZ9" s="32"/>
-      <c r="GD9" s="32"/>
-      <c r="GH9" s="32"/>
-      <c r="GL9" s="32"/>
-      <c r="GP9" s="32"/>
-      <c r="GT9" s="32"/>
-      <c r="GX9" s="32"/>
-      <c r="HB9" s="32"/>
-      <c r="HF9" s="32"/>
-      <c r="HJ9" s="32"/>
-      <c r="HN9" s="32"/>
-      <c r="HR9" s="32"/>
-      <c r="HV9" s="32"/>
-      <c r="HZ9" s="32"/>
-      <c r="ID9" s="32"/>
-      <c r="IH9" s="32"/>
-      <c r="IL9" s="32"/>
-      <c r="IP9" s="32"/>
-      <c r="IT9" s="32"/>
-      <c r="IX9" s="32"/>
-      <c r="JB9" s="32"/>
-      <c r="JF9" s="32"/>
-      <c r="JJ9" s="32"/>
-      <c r="JN9" s="32"/>
-      <c r="JR9" s="32"/>
-      <c r="JV9" s="32"/>
-      <c r="JZ9" s="32"/>
-      <c r="KD9" s="32"/>
-      <c r="KH9" s="32"/>
-      <c r="KL9" s="32"/>
-      <c r="KP9" s="32"/>
-      <c r="KT9" s="32"/>
-      <c r="KX9" s="32"/>
-      <c r="LB9" s="32"/>
-      <c r="LF9" s="32"/>
-      <c r="LJ9" s="32"/>
-      <c r="LN9" s="32"/>
-      <c r="LR9" s="32"/>
-      <c r="LV9" s="32"/>
-      <c r="LZ9" s="32"/>
-      <c r="MD9" s="32"/>
-      <c r="MH9" s="32"/>
-      <c r="ML9" s="32"/>
-      <c r="MP9" s="32"/>
-      <c r="MT9" s="32"/>
-      <c r="MX9" s="32"/>
-      <c r="NB9" s="32"/>
-      <c r="NF9" s="32"/>
-      <c r="NJ9" s="32"/>
-      <c r="NN9" s="32"/>
-      <c r="NR9" s="32"/>
-      <c r="NV9" s="32"/>
-      <c r="NZ9" s="32"/>
-      <c r="OD9" s="32"/>
-      <c r="OH9" s="32"/>
-      <c r="OL9" s="32"/>
-      <c r="OP9" s="32"/>
-      <c r="OT9" s="32"/>
-      <c r="OX9" s="32"/>
-      <c r="PB9" s="32"/>
-      <c r="PF9" s="32"/>
-      <c r="PJ9" s="32"/>
-      <c r="PN9" s="32"/>
-      <c r="PR9" s="32"/>
-      <c r="PV9" s="32"/>
-      <c r="PZ9" s="32"/>
-      <c r="QD9" s="32"/>
-      <c r="QH9" s="32"/>
-      <c r="QL9" s="32"/>
-      <c r="QP9" s="32"/>
-      <c r="QT9" s="32"/>
-      <c r="QX9" s="32"/>
-      <c r="RB9" s="32"/>
-      <c r="RF9" s="32"/>
-      <c r="RJ9" s="32"/>
-      <c r="RN9" s="32"/>
-      <c r="RR9" s="32"/>
-      <c r="RV9" s="32"/>
-      <c r="RZ9" s="32"/>
-      <c r="SD9" s="32"/>
-      <c r="SH9" s="32"/>
-      <c r="SL9" s="32"/>
-      <c r="SP9" s="32"/>
-      <c r="ST9" s="32"/>
-      <c r="SX9" s="32"/>
-      <c r="TB9" s="32"/>
-      <c r="TF9" s="32"/>
-      <c r="TJ9" s="32"/>
-      <c r="TN9" s="32"/>
-      <c r="TR9" s="32"/>
-      <c r="TV9" s="32"/>
-      <c r="TZ9" s="32"/>
-      <c r="UD9" s="32"/>
-      <c r="UH9" s="32"/>
-      <c r="UL9" s="32"/>
-      <c r="UP9" s="32"/>
-      <c r="UT9" s="32"/>
-      <c r="UX9" s="32"/>
-      <c r="VB9" s="32"/>
-      <c r="VF9" s="32"/>
-      <c r="VJ9" s="32"/>
-      <c r="VN9" s="32"/>
-      <c r="VR9" s="32"/>
-      <c r="VV9" s="32"/>
-      <c r="VZ9" s="32"/>
-      <c r="WD9" s="32"/>
-      <c r="WH9" s="32"/>
-      <c r="WL9" s="32"/>
-      <c r="WP9" s="32"/>
-      <c r="WT9" s="32"/>
-      <c r="WX9" s="32"/>
-      <c r="XB9" s="32"/>
-      <c r="XF9" s="32"/>
-      <c r="XJ9" s="32"/>
-      <c r="XN9" s="32"/>
-      <c r="XR9" s="32"/>
-      <c r="XV9" s="32"/>
-      <c r="XZ9" s="32"/>
-      <c r="YD9" s="32"/>
-      <c r="YH9" s="32"/>
-      <c r="YL9" s="32"/>
-      <c r="YP9" s="32"/>
-      <c r="YT9" s="32"/>
-      <c r="YX9" s="32"/>
-      <c r="ZB9" s="32"/>
-      <c r="ZF9" s="32"/>
-      <c r="ZJ9" s="32"/>
-      <c r="ZN9" s="32"/>
-      <c r="ZR9" s="32"/>
-      <c r="ZV9" s="32"/>
-      <c r="ZZ9" s="32"/>
-      <c r="AAD9" s="32"/>
-      <c r="AAH9" s="32"/>
-      <c r="AAL9" s="32"/>
-      <c r="AAP9" s="32"/>
-      <c r="AAT9" s="32"/>
-      <c r="AAX9" s="32"/>
-      <c r="ABB9" s="32"/>
-      <c r="ABF9" s="32"/>
-      <c r="ABJ9" s="32"/>
-      <c r="ABN9" s="32"/>
-      <c r="ABR9" s="32"/>
-      <c r="ABV9" s="32"/>
-      <c r="ABZ9" s="32"/>
-      <c r="ACD9" s="32"/>
-      <c r="ACH9" s="32"/>
-      <c r="ACL9" s="32"/>
-      <c r="ACP9" s="32"/>
-      <c r="ACT9" s="32"/>
-      <c r="ACX9" s="32"/>
-      <c r="ADB9" s="32"/>
-      <c r="ADF9" s="32"/>
-      <c r="ADJ9" s="32"/>
-      <c r="ADN9" s="32"/>
-      <c r="ADR9" s="32"/>
-      <c r="ADV9" s="32"/>
-      <c r="ADZ9" s="32"/>
-      <c r="AED9" s="32"/>
-      <c r="AEH9" s="32"/>
-      <c r="AEL9" s="32"/>
-      <c r="AEP9" s="32"/>
-      <c r="AET9" s="32"/>
-      <c r="AEX9" s="32"/>
-      <c r="AFB9" s="32"/>
-      <c r="AFF9" s="32"/>
-      <c r="AFJ9" s="32"/>
-      <c r="AFN9" s="32"/>
-      <c r="AFR9" s="32"/>
-      <c r="AFV9" s="32"/>
-      <c r="AFZ9" s="32"/>
-      <c r="AGD9" s="32"/>
-      <c r="AGH9" s="32"/>
-      <c r="AGL9" s="32"/>
-      <c r="AGP9" s="32"/>
-      <c r="AGT9" s="32"/>
-      <c r="AGX9" s="32"/>
-      <c r="AHB9" s="32"/>
-      <c r="AHF9" s="32"/>
-      <c r="AHJ9" s="32"/>
-      <c r="AHN9" s="32"/>
-      <c r="AHR9" s="32"/>
-      <c r="AHV9" s="32"/>
-      <c r="AHZ9" s="32"/>
-      <c r="AID9" s="32"/>
-      <c r="AIH9" s="32"/>
-      <c r="AIL9" s="32"/>
-      <c r="AIP9" s="32"/>
-      <c r="AIT9" s="32"/>
-      <c r="AIX9" s="32"/>
-      <c r="AJB9" s="32"/>
-      <c r="AJF9" s="32"/>
-      <c r="AJJ9" s="32"/>
-      <c r="AJN9" s="32"/>
-      <c r="AJR9" s="32"/>
-      <c r="AJV9" s="32"/>
-      <c r="AJZ9" s="32"/>
-      <c r="AKD9" s="32"/>
-      <c r="AKH9" s="32"/>
-      <c r="AKL9" s="32"/>
-      <c r="AKP9" s="32"/>
-      <c r="AKT9" s="32"/>
-      <c r="AKX9" s="32"/>
-      <c r="ALB9" s="32"/>
-      <c r="ALF9" s="32"/>
-      <c r="ALJ9" s="32"/>
-      <c r="ALN9" s="32"/>
-      <c r="ALR9" s="32"/>
-      <c r="ALV9" s="32"/>
-      <c r="ALZ9" s="32"/>
-      <c r="AMD9" s="32"/>
-      <c r="AMH9" s="32"/>
+      <c r="J9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BJ9" s="31"/>
+      <c r="BN9" s="31"/>
+      <c r="BR9" s="31"/>
+      <c r="BV9" s="31"/>
+      <c r="BZ9" s="31"/>
+      <c r="CD9" s="31"/>
+      <c r="CH9" s="31"/>
+      <c r="CL9" s="31"/>
+      <c r="CP9" s="31"/>
+      <c r="CT9" s="31"/>
+      <c r="CX9" s="31"/>
+      <c r="DB9" s="31"/>
+      <c r="DF9" s="31"/>
+      <c r="DJ9" s="31"/>
+      <c r="DN9" s="31"/>
+      <c r="DR9" s="31"/>
+      <c r="DV9" s="31"/>
+      <c r="DZ9" s="31"/>
+      <c r="ED9" s="31"/>
+      <c r="EH9" s="31"/>
+      <c r="EL9" s="31"/>
+      <c r="EP9" s="31"/>
+      <c r="ET9" s="31"/>
+      <c r="EX9" s="31"/>
+      <c r="FB9" s="31"/>
+      <c r="FF9" s="31"/>
+      <c r="FJ9" s="31"/>
+      <c r="FN9" s="31"/>
+      <c r="FR9" s="31"/>
+      <c r="FV9" s="31"/>
+      <c r="FZ9" s="31"/>
+      <c r="GD9" s="31"/>
+      <c r="GH9" s="31"/>
+      <c r="GL9" s="31"/>
+      <c r="GP9" s="31"/>
+      <c r="GT9" s="31"/>
+      <c r="GX9" s="31"/>
+      <c r="HB9" s="31"/>
+      <c r="HF9" s="31"/>
+      <c r="HJ9" s="31"/>
+      <c r="HN9" s="31"/>
+      <c r="HR9" s="31"/>
+      <c r="HV9" s="31"/>
+      <c r="HZ9" s="31"/>
+      <c r="ID9" s="31"/>
+      <c r="IH9" s="31"/>
+      <c r="IL9" s="31"/>
+      <c r="IP9" s="31"/>
+      <c r="IT9" s="31"/>
+      <c r="IX9" s="31"/>
+      <c r="JB9" s="31"/>
+      <c r="JF9" s="31"/>
+      <c r="JJ9" s="31"/>
+      <c r="JN9" s="31"/>
+      <c r="JR9" s="31"/>
+      <c r="JV9" s="31"/>
+      <c r="JZ9" s="31"/>
+      <c r="KD9" s="31"/>
+      <c r="KH9" s="31"/>
+      <c r="KL9" s="31"/>
+      <c r="KP9" s="31"/>
+      <c r="KT9" s="31"/>
+      <c r="KX9" s="31"/>
+      <c r="LB9" s="31"/>
+      <c r="LF9" s="31"/>
+      <c r="LJ9" s="31"/>
+      <c r="LN9" s="31"/>
+      <c r="LR9" s="31"/>
+      <c r="LV9" s="31"/>
+      <c r="LZ9" s="31"/>
+      <c r="MD9" s="31"/>
+      <c r="MH9" s="31"/>
+      <c r="ML9" s="31"/>
+      <c r="MP9" s="31"/>
+      <c r="MT9" s="31"/>
+      <c r="MX9" s="31"/>
+      <c r="NB9" s="31"/>
+      <c r="NF9" s="31"/>
+      <c r="NJ9" s="31"/>
+      <c r="NN9" s="31"/>
+      <c r="NR9" s="31"/>
+      <c r="NV9" s="31"/>
+      <c r="NZ9" s="31"/>
+      <c r="OD9" s="31"/>
+      <c r="OH9" s="31"/>
+      <c r="OL9" s="31"/>
+      <c r="OP9" s="31"/>
+      <c r="OT9" s="31"/>
+      <c r="OX9" s="31"/>
+      <c r="PB9" s="31"/>
+      <c r="PF9" s="31"/>
+      <c r="PJ9" s="31"/>
+      <c r="PN9" s="31"/>
+      <c r="PR9" s="31"/>
+      <c r="PV9" s="31"/>
+      <c r="PZ9" s="31"/>
+      <c r="QD9" s="31"/>
+      <c r="QH9" s="31"/>
+      <c r="QL9" s="31"/>
+      <c r="QP9" s="31"/>
+      <c r="QT9" s="31"/>
+      <c r="QX9" s="31"/>
+      <c r="RB9" s="31"/>
+      <c r="RF9" s="31"/>
+      <c r="RJ9" s="31"/>
+      <c r="RN9" s="31"/>
+      <c r="RR9" s="31"/>
+      <c r="RV9" s="31"/>
+      <c r="RZ9" s="31"/>
+      <c r="SD9" s="31"/>
+      <c r="SH9" s="31"/>
+      <c r="SL9" s="31"/>
+      <c r="SP9" s="31"/>
+      <c r="ST9" s="31"/>
+      <c r="SX9" s="31"/>
+      <c r="TB9" s="31"/>
+      <c r="TF9" s="31"/>
+      <c r="TJ9" s="31"/>
+      <c r="TN9" s="31"/>
+      <c r="TR9" s="31"/>
+      <c r="TV9" s="31"/>
+      <c r="TZ9" s="31"/>
+      <c r="UD9" s="31"/>
+      <c r="UH9" s="31"/>
+      <c r="UL9" s="31"/>
+      <c r="UP9" s="31"/>
+      <c r="UT9" s="31"/>
+      <c r="UX9" s="31"/>
+      <c r="VB9" s="31"/>
+      <c r="VF9" s="31"/>
+      <c r="VJ9" s="31"/>
+      <c r="VN9" s="31"/>
+      <c r="VR9" s="31"/>
+      <c r="VV9" s="31"/>
+      <c r="VZ9" s="31"/>
+      <c r="WD9" s="31"/>
+      <c r="WH9" s="31"/>
+      <c r="WL9" s="31"/>
+      <c r="WP9" s="31"/>
+      <c r="WT9" s="31"/>
+      <c r="WX9" s="31"/>
+      <c r="XB9" s="31"/>
+      <c r="XF9" s="31"/>
+      <c r="XJ9" s="31"/>
+      <c r="XN9" s="31"/>
+      <c r="XR9" s="31"/>
+      <c r="XV9" s="31"/>
+      <c r="XZ9" s="31"/>
+      <c r="YD9" s="31"/>
+      <c r="YH9" s="31"/>
+      <c r="YL9" s="31"/>
+      <c r="YP9" s="31"/>
+      <c r="YT9" s="31"/>
+      <c r="YX9" s="31"/>
+      <c r="ZB9" s="31"/>
+      <c r="ZF9" s="31"/>
+      <c r="ZJ9" s="31"/>
+      <c r="ZN9" s="31"/>
+      <c r="ZR9" s="31"/>
+      <c r="ZV9" s="31"/>
+      <c r="ZZ9" s="31"/>
+      <c r="AAD9" s="31"/>
+      <c r="AAH9" s="31"/>
+      <c r="AAL9" s="31"/>
+      <c r="AAP9" s="31"/>
+      <c r="AAT9" s="31"/>
+      <c r="AAX9" s="31"/>
+      <c r="ABB9" s="31"/>
+      <c r="ABF9" s="31"/>
+      <c r="ABJ9" s="31"/>
+      <c r="ABN9" s="31"/>
+      <c r="ABR9" s="31"/>
+      <c r="ABV9" s="31"/>
+      <c r="ABZ9" s="31"/>
+      <c r="ACD9" s="31"/>
+      <c r="ACH9" s="31"/>
+      <c r="ACL9" s="31"/>
+      <c r="ACP9" s="31"/>
+      <c r="ACT9" s="31"/>
+      <c r="ACX9" s="31"/>
+      <c r="ADB9" s="31"/>
+      <c r="ADF9" s="31"/>
+      <c r="ADJ9" s="31"/>
+      <c r="ADN9" s="31"/>
+      <c r="ADR9" s="31"/>
+      <c r="ADV9" s="31"/>
+      <c r="ADZ9" s="31"/>
+      <c r="AED9" s="31"/>
+      <c r="AEH9" s="31"/>
+      <c r="AEL9" s="31"/>
+      <c r="AEP9" s="31"/>
+      <c r="AET9" s="31"/>
+      <c r="AEX9" s="31"/>
+      <c r="AFB9" s="31"/>
+      <c r="AFF9" s="31"/>
+      <c r="AFJ9" s="31"/>
+      <c r="AFN9" s="31"/>
+      <c r="AFR9" s="31"/>
+      <c r="AFV9" s="31"/>
+      <c r="AFZ9" s="31"/>
+      <c r="AGD9" s="31"/>
+      <c r="AGH9" s="31"/>
+      <c r="AGL9" s="31"/>
+      <c r="AGP9" s="31"/>
+      <c r="AGT9" s="31"/>
+      <c r="AGX9" s="31"/>
+      <c r="AHB9" s="31"/>
+      <c r="AHF9" s="31"/>
+      <c r="AHJ9" s="31"/>
+      <c r="AHN9" s="31"/>
+      <c r="AHR9" s="31"/>
+      <c r="AHV9" s="31"/>
+      <c r="AHZ9" s="31"/>
+      <c r="AID9" s="31"/>
+      <c r="AIH9" s="31"/>
+      <c r="AIL9" s="31"/>
+      <c r="AIP9" s="31"/>
+      <c r="AIT9" s="31"/>
+      <c r="AIX9" s="31"/>
+      <c r="AJB9" s="31"/>
+      <c r="AJF9" s="31"/>
+      <c r="AJJ9" s="31"/>
+      <c r="AJN9" s="31"/>
+      <c r="AJR9" s="31"/>
+      <c r="AJV9" s="31"/>
+      <c r="AJZ9" s="31"/>
+      <c r="AKD9" s="31"/>
+      <c r="AKH9" s="31"/>
+      <c r="AKL9" s="31"/>
+      <c r="AKP9" s="31"/>
+      <c r="AKT9" s="31"/>
+      <c r="AKX9" s="31"/>
+      <c r="ALB9" s="31"/>
+      <c r="ALF9" s="31"/>
+      <c r="ALJ9" s="31"/>
+      <c r="ALN9" s="31"/>
+      <c r="ALR9" s="31"/>
+      <c r="ALV9" s="31"/>
+      <c r="ALZ9" s="31"/>
+      <c r="AMD9" s="31"/>
+      <c r="AMH9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="19" t="n">
@@ -30241,7 +30253,7 @@
       <c r="A11" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="19" t="n">
@@ -30261,7 +30273,7 @@
       <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="19" t="n">
@@ -30281,7 +30293,7 @@
       <c r="A13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="19" t="n">
@@ -30301,7 +30313,7 @@
       <c r="A14" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="19" t="n">
@@ -30321,7 +30333,7 @@
       <c r="A15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="19" t="n">
@@ -30341,7 +30353,7 @@
       <c r="A16" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="19" t="n">
@@ -30361,7 +30373,7 @@
       <c r="A17" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="19" t="n">
@@ -30381,7 +30393,7 @@
       <c r="A18" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="19" t="n">
@@ -30401,7 +30413,7 @@
       <c r="A19" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="19" t="n">
@@ -30421,7 +30433,7 @@
       <c r="A20" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="19" t="n">
@@ -30441,7 +30453,7 @@
       <c r="A21" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="19" t="n">
@@ -30461,7 +30473,7 @@
       <c r="A22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="19" t="n">
@@ -30481,7 +30493,7 @@
       <c r="A23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="19" t="n">
@@ -30501,7 +30513,7 @@
       <c r="A24" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="19" t="n">
@@ -30521,7 +30533,7 @@
       <c r="A25" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="19" t="n">
@@ -30541,7 +30553,7 @@
       <c r="A26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="19" t="n">
@@ -30561,7 +30573,7 @@
       <c r="A27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="19" t="n">
@@ -30581,7 +30593,7 @@
       <c r="A28" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="19" t="n">
@@ -30601,7 +30613,7 @@
       <c r="A29" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="19" t="n">
@@ -30621,7 +30633,7 @@
       <c r="A30" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="19" t="n">
@@ -30641,7 +30653,7 @@
       <c r="A31" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="19" t="n">
@@ -30661,7 +30673,7 @@
       <c r="A32" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="19" t="n">
@@ -30681,7 +30693,7 @@
       <c r="A33" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="19" t="n">
@@ -30701,7 +30713,7 @@
       <c r="A34" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="19" t="n">
@@ -30721,7 +30733,7 @@
       <c r="A35" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="19" t="n">
@@ -30741,7 +30753,7 @@
       <c r="A36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="19" t="n">
@@ -30761,7 +30773,7 @@
       <c r="A37" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="19" t="n">
@@ -30781,7 +30793,7 @@
       <c r="A38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="19" t="n">
@@ -30801,7 +30813,7 @@
       <c r="A39" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="19" t="n">
@@ -30821,7 +30833,7 @@
       <c r="A40" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="19" t="n">
@@ -30841,7 +30853,7 @@
       <c r="A41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="19" t="n">
@@ -30861,7 +30873,7 @@
       <c r="A42" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="19" t="n">
@@ -30881,7 +30893,7 @@
       <c r="A43" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="19" t="n">
@@ -30917,14 +30929,14 @@
   </sheetPr>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.64372469635628"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.64372469635628"/>
@@ -30932,10 +30944,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>163</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -30943,17 +30955,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
         <v>190</v>
       </c>
@@ -30964,7 +30976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
         <v>212</v>
       </c>
@@ -30975,7 +30987,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
         <v>214</v>
       </c>
@@ -30986,7 +30998,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
         <v>264</v>
       </c>
@@ -30997,7 +31009,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
         <v>265</v>
       </c>
@@ -31008,7 +31020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
         <v>262</v>
       </c>
@@ -31019,7 +31031,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
         <v>237</v>
       </c>
@@ -31030,7 +31042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
         <v>235</v>
       </c>
@@ -31041,7 +31053,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
         <v>239</v>
       </c>
@@ -31052,7 +31064,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
         <v>216</v>
       </c>
@@ -31063,7 +31075,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
         <v>176</v>
       </c>
@@ -31074,7 +31086,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
         <v>166</v>
       </c>
@@ -31085,7 +31097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
         <v>206</v>
       </c>
@@ -31096,7 +31108,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
         <v>208</v>
       </c>
@@ -31107,7 +31119,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
         <v>174</v>
       </c>
@@ -31118,7 +31130,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
         <v>172</v>
       </c>
@@ -31129,18 +31141,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>211</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
         <v>256</v>
       </c>
@@ -31173,7 +31185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
         <v>233</v>
       </c>
@@ -31184,7 +31196,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
         <v>231</v>
       </c>
@@ -31195,7 +31207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
         <v>227</v>
       </c>
@@ -31206,7 +31218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
         <v>229</v>
       </c>
@@ -31217,7 +31229,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
         <v>245</v>
       </c>
@@ -31228,18 +31240,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="C28" s="8" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
         <v>267</v>
       </c>
@@ -31250,7 +31262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
         <v>331</v>
       </c>
@@ -31261,18 +31273,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C31" s="8" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
         <v>327</v>
       </c>
@@ -31283,7 +31295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
         <v>329</v>
       </c>
@@ -31294,7 +31306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
         <v>223</v>
       </c>
@@ -31305,7 +31317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
         <v>202</v>
       </c>
@@ -31316,7 +31328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
         <v>198</v>
       </c>
@@ -31327,7 +31339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
         <v>200</v>
       </c>
@@ -31338,7 +31350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
         <v>309</v>
       </c>
@@ -31349,7 +31361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
         <v>316</v>
       </c>
@@ -31360,7 +31372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
         <v>312</v>
       </c>
@@ -31371,7 +31383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
         <v>336</v>
       </c>
@@ -31382,7 +31394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
         <v>278</v>
       </c>
@@ -31393,7 +31405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
         <v>280</v>
       </c>
@@ -31404,7 +31416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
         <v>335</v>
       </c>
@@ -31415,7 +31427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
         <v>286</v>
       </c>
@@ -31426,7 +31438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
         <v>282</v>
       </c>
@@ -31437,7 +31449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
         <v>284</v>
       </c>
@@ -31448,7 +31460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
         <v>204</v>
       </c>
@@ -31459,7 +31471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
         <v>294</v>
       </c>
@@ -31470,7 +31482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
         <v>296</v>
       </c>
@@ -31481,7 +31493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
         <v>300</v>
       </c>
@@ -31492,7 +31504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
         <v>298</v>
       </c>
@@ -31503,7 +31515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
         <v>302</v>
       </c>
@@ -31511,10 +31523,11 @@
         <v>303</v>
       </c>
       <c r="C53" s="8" t="n">
+        <f aca="false">30</f>
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
         <v>304</v>
       </c>
@@ -31525,7 +31538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
         <v>306</v>
       </c>
@@ -31536,7 +31549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
         <v>288</v>
       </c>
@@ -31547,7 +31560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
         <v>271</v>
       </c>
@@ -31558,7 +31571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
         <v>292</v>
       </c>
@@ -31569,7 +31582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
         <v>290</v>
       </c>
@@ -31719,7 +31732,7 @@
       <c r="B72" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C72" s="11" t="n">
+      <c r="C72" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31730,7 +31743,7 @@
       <c r="B73" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="11" t="n">
+      <c r="C73" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31741,7 +31754,7 @@
       <c r="B74" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="C74" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31752,7 +31765,7 @@
       <c r="B75" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="11" t="n">
+      <c r="C75" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31763,7 +31776,7 @@
       <c r="B76" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C76" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31774,7 +31787,7 @@
       <c r="B77" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="11" t="n">
+      <c r="C77" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31785,7 +31798,7 @@
       <c r="B78" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="11" t="n">
+      <c r="C78" s="34" t="n">
         <v>30</v>
       </c>
     </row>
@@ -31796,7 +31809,7 @@
       <c r="B79" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="11" t="n">
+      <c r="C79" s="34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31827,9 +31840,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -32475,10 +32488,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="97.4777327935223"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/BATRU/Data/P3_template.xlsx
+++ b/Projects/BATRU/Data/P3_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,6 +47,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
@@ -71,6 +72,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
@@ -95,6 +97,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
@@ -119,6 +122,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
@@ -143,6 +147,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
@@ -167,6 +172,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1989,28 +1995,28 @@
   </sheetPr>
   <dimension ref="A1:O1041"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0364372469636"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.6275303643725"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.3562753036437"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47844,11 +47850,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.2348178137652"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30.9716599190283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -52574,14 +52580,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5384615384615"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3603238866397"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.67206477732794"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.91902834008097"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53818,13 +53824,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6842105263158"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4453441295547"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56104,12 +56110,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="50.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="51.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9959514170041"/>
     <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57196,11 +57202,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.2145748987854"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -57838,18 +57844,18 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2348178137652"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="105.032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9716599190283"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="107.603238866397"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/BATRU/Data/P3_template.xlsx
+++ b/Projects/BATRU/Data/P3_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,6 +49,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Sections!$A$1:$N$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
@@ -75,6 +76,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'SKU_Lists for sections'!$D$1:$H$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
@@ -101,6 +103,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Sequence list'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
@@ -127,6 +130,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'P3 SAS zone'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
@@ -153,6 +157,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Share priority'!$A$1:$C$1</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
@@ -179,6 +184,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Ean code'!$C$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -190,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8940" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8940" uniqueCount="410">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -1290,9 +1296,6 @@
     <t xml:space="preserve">end_shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">pos-000001</t>
-  </si>
-  <si>
     <t xml:space="preserve">product_english_name</t>
   </si>
   <si>
@@ -2013,22 +2016,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.3967611336032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3603238866397"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0931174089069"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47856,19 +47859,19 @@
   </sheetPr>
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F272" activeCellId="0" sqref="F272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.7125506072874"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -54856,20 +54859,20 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9716599190283"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.91902834008097"/>
-    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.1295546558704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4"/>
+    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56106,13 +56109,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58386,18 +58389,18 @@
   </sheetPr>
   <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="52.7651821862348"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.67206477732794"/>
-    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="55.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="100" min="7" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="101" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59076,7 +59079,7 @@
         <v>233</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="C62" s="24" t="n">
         <v>90</v>
@@ -59484,17 +59487,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8461538461539"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>163</v>
@@ -59502,7 +59505,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>278</v>
@@ -59550,10 +59553,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>369</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59585,7 +59588,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59657,15 +59660,15 @@
         <v>169</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>373</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59742,10 +59745,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="45" t="s">
         <v>375</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59785,7 +59788,7 @@
         <v>353</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59818,7 +59821,7 @@
     </row>
     <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="45"/>
     </row>
@@ -59828,10 +59831,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" s="45" t="s">
         <v>379</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59887,7 +59890,7 @@
         <v>288</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60031,7 +60034,7 @@
         <v>323</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60055,7 +60058,7 @@
         <v>326</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60071,7 +60074,7 @@
         <v>335</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60087,7 +60090,7 @@
         <v>336</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60103,7 +60106,7 @@
         <v>347</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -60132,12 +60135,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.8987854251012"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="110.303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="115.400809716599"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60145,16 +60148,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>389</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60168,10 +60171,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60185,10 +60188,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60202,10 +60205,10 @@
         <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60219,10 +60222,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60236,10 +60239,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60253,10 +60256,10 @@
         <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60270,10 +60273,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60287,10 +60290,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60304,10 +60307,10 @@
         <v>46</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60321,10 +60324,10 @@
         <v>46</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60338,10 +60341,10 @@
         <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60355,10 +60358,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60372,10 +60375,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60389,10 +60392,10 @@
         <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60406,10 +60409,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60423,10 +60426,10 @@
         <v>46</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60440,10 +60443,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60457,10 +60460,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60474,10 +60477,10 @@
         <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60491,10 +60494,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60508,10 +60511,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60525,10 +60528,10 @@
         <v>46</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60542,10 +60545,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60559,10 +60562,10 @@
         <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60576,10 +60579,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60593,10 +60596,10 @@
         <v>46</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60610,10 +60613,10 @@
         <v>46</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60627,10 +60630,10 @@
         <v>16</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60644,10 +60647,10 @@
         <v>16</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60661,10 +60664,10 @@
         <v>46</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60678,10 +60681,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60695,10 +60698,10 @@
         <v>46</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60712,10 +60715,10 @@
         <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60729,10 +60732,10 @@
         <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60746,10 +60749,10 @@
         <v>46</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60763,10 +60766,10 @@
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>391</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60780,10 +60783,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60797,10 +60800,10 @@
         <v>46</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60814,10 +60817,10 @@
         <v>16</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60831,10 +60834,10 @@
         <v>16</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60848,10 +60851,10 @@
         <v>46</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60865,10 +60868,10 @@
         <v>46</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60882,10 +60885,10 @@
         <v>46</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60899,10 +60902,10 @@
         <v>16</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60916,10 +60919,10 @@
         <v>16</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60933,10 +60936,10 @@
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>401</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60950,10 +60953,10 @@
         <v>46</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60967,10 +60970,10 @@
         <v>46</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>405</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
